--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY26"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964112</v>
+        <v>111964079</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,31 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572356.2636580318</v>
+        <v>572508.5941006967</v>
       </c>
       <c r="R2" t="n">
-        <v>6635058.312529455</v>
+        <v>6635199.007651598</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964096</v>
+        <v>111964107</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572431.0643658402</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R3" t="n">
-        <v>6635250.269680216</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964105</v>
+        <v>111964063</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,43 +926,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572625.6289808374</v>
+        <v>572637.7864215365</v>
       </c>
       <c r="R4" t="n">
-        <v>6635264.626341943</v>
+        <v>6635260.843257532</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1148,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964098</v>
+        <v>111964075</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,31 +1155,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1193,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572398.8058685388</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R6" t="n">
-        <v>6635329.556315796</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,7 +1264,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964097</v>
+        <v>111964095</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1310,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572392.0085447398</v>
+        <v>572522.4578243491</v>
       </c>
       <c r="R7" t="n">
-        <v>6635342.491595642</v>
+        <v>6635185.204844719</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964109</v>
+        <v>111964097</v>
       </c>
       <c r="B8" t="n">
-        <v>83366</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,38 +1393,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>241</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572482.9349674499</v>
+        <v>572392.0085447398</v>
       </c>
       <c r="R8" t="n">
-        <v>6635017.555758155</v>
+        <v>6635342.491595642</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1494,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964067</v>
+        <v>111964062</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,25 +1510,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1534,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572522.2088334097</v>
+        <v>572498.1579318554</v>
       </c>
       <c r="R9" t="n">
-        <v>6635069.090440127</v>
+        <v>6635063.091541843</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1606,10 +1610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964099</v>
+        <v>111964085</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,39 +1626,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572397.1455479467</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R10" t="n">
-        <v>6635311.429904899</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1705,6 +1707,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1723,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964113</v>
+        <v>111964109</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>83366</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1735,43 +1738,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>241</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572545.8177945263</v>
+        <v>572482.9349674499</v>
       </c>
       <c r="R11" t="n">
-        <v>6635097.699846692</v>
+        <v>6635017.555758155</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1838,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964108</v>
+        <v>111964073</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>4711</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,31 +1850,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1885,10 +1883,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572347.9538572846</v>
+        <v>572543.9889093617</v>
       </c>
       <c r="R12" t="n">
-        <v>6635252.167235874</v>
+        <v>6635165.520267763</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1957,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964102</v>
+        <v>111964089</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56404</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,31 +1967,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100048</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2002,13 +2004,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572412.0221011948</v>
+        <v>572574.3975851728</v>
       </c>
       <c r="R13" t="n">
-        <v>6634910.110561746</v>
+        <v>6635206.827772016</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2074,10 +2076,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964074</v>
+        <v>111964090</v>
       </c>
       <c r="B14" t="n">
-        <v>56543</v>
+        <v>90123</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2086,47 +2088,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>1105</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572451.3179004347</v>
+        <v>572484.5950392252</v>
       </c>
       <c r="R14" t="n">
-        <v>6634883.230436426</v>
+        <v>6635035.683644415</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2195,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964100</v>
+        <v>111964080</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2207,31 +2200,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2240,10 +2233,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572399.2664482036</v>
+        <v>572551.8845251498</v>
       </c>
       <c r="R15" t="n">
-        <v>6635305.942523698</v>
+        <v>6635173.716707909</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2312,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964075</v>
+        <v>111964104</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2324,35 +2317,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2361,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572347.9538572846</v>
+        <v>572636.8271442646</v>
       </c>
       <c r="R16" t="n">
-        <v>6635252.167235874</v>
+        <v>6635232.677581957</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2433,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964064</v>
+        <v>111964074</v>
       </c>
       <c r="B17" t="n">
-        <v>89601</v>
+        <v>56543</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,38 +2434,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1106</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572398.4922834886</v>
+        <v>572451.3179004347</v>
       </c>
       <c r="R17" t="n">
-        <v>6635345.633705587</v>
+        <v>6634883.230436426</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2545,10 +2543,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964103</v>
+        <v>111964114</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2557,31 +2555,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2590,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572486.3924484762</v>
+        <v>572629.537274144</v>
       </c>
       <c r="R18" t="n">
-        <v>6635046.777041948</v>
+        <v>6635270.734256107</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2662,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964066</v>
+        <v>111964068</v>
       </c>
       <c r="B19" t="n">
-        <v>89601</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,25 +2672,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1106</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572543.9692712617</v>
+        <v>572624.3275140596</v>
       </c>
       <c r="R19" t="n">
-        <v>6635166.52515117</v>
+        <v>6635279.679472073</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2891,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964068</v>
+        <v>111964102</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2903,38 +2901,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572624.3275140596</v>
+        <v>572412.0221011948</v>
       </c>
       <c r="R21" t="n">
-        <v>6635279.679472073</v>
+        <v>6634910.110561746</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3003,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964106</v>
+        <v>111964091</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>90123</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3019,39 +3022,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572621.5437408438</v>
+        <v>572482.6995120253</v>
       </c>
       <c r="R22" t="n">
-        <v>6635267.562138557</v>
+        <v>6635029.614818911</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3120,10 +3118,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964089</v>
+        <v>111964067</v>
       </c>
       <c r="B23" t="n">
-        <v>56404</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3136,46 +3134,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100048</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572574.3975851728</v>
+        <v>572522.2088334097</v>
       </c>
       <c r="R23" t="n">
-        <v>6635206.827772016</v>
+        <v>6635069.090440127</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3241,7 +3230,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964095</v>
+        <v>111964103</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3286,10 +3275,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572522.4578243491</v>
+        <v>572486.3924484762</v>
       </c>
       <c r="R24" t="n">
-        <v>6635185.204844719</v>
+        <v>6635046.777041948</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3358,7 +3347,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964104</v>
+        <v>111964106</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3403,10 +3392,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572636.8271442646</v>
+        <v>572621.5437408438</v>
       </c>
       <c r="R25" t="n">
-        <v>6635232.677581957</v>
+        <v>6635267.562138557</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3475,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964114</v>
+        <v>111964066</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>89601</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3487,43 +3476,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>1106</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572629.537274144</v>
+        <v>572543.9692712617</v>
       </c>
       <c r="R26" t="n">
-        <v>6635270.734256107</v>
+        <v>6635166.52515117</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3589,6 +3573,1391 @@
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111964098</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>572398.8058685388</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6635329.556315796</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111964064</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89601</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1106</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vågticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Osteina undosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>572398.4922834886</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6635345.633705587</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111964088</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>572531.178093905</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6635151.196164564</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111964100</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>572399.2664482036</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6635305.942523698</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111964099</v>
+      </c>
+      <c r="B31" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>572397.1455479467</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6635311.429904899</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111964112</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>572356.2636580318</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6635058.312529455</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111964084</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>572617.2972367437</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6635227.269214762</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111964113</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>572545.8177945263</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6635097.699846692</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111964115</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>572413.4467321351</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6634862.88732568</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111964061</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>572376.3312293739</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6635294.437731684</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111964096</v>
+      </c>
+      <c r="B37" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>572431.0643658402</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6635250.269680216</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111964105</v>
+      </c>
+      <c r="B38" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>572625.6289808374</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6635264.626341943</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -2772,10 +2772,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964111</v>
+        <v>111964103</v>
       </c>
       <c r="B20" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2784,31 +2784,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572531.2343797031</v>
+        <v>572486.3924484762</v>
       </c>
       <c r="R20" t="n">
-        <v>6635122.546929917</v>
+        <v>6635046.777041948</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964102</v>
+        <v>111964111</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2901,31 +2901,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572412.0221011948</v>
+        <v>572531.2343797031</v>
       </c>
       <c r="R21" t="n">
-        <v>6634910.110561746</v>
+        <v>6635122.546929917</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964091</v>
+        <v>111964102</v>
       </c>
       <c r="B22" t="n">
-        <v>90123</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,34 +3022,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572482.6995120253</v>
+        <v>572412.0221011948</v>
       </c>
       <c r="R22" t="n">
-        <v>6635029.614818911</v>
+        <v>6634910.110561746</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3118,10 +3123,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964067</v>
+        <v>111964091</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>90123</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3130,25 +3135,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>1105</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3158,10 +3163,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572522.2088334097</v>
+        <v>572482.6995120253</v>
       </c>
       <c r="R23" t="n">
-        <v>6635069.090440127</v>
+        <v>6635029.614818911</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3230,10 +3235,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964103</v>
+        <v>111964067</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3242,43 +3247,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572486.3924484762</v>
+        <v>572522.2088334097</v>
       </c>
       <c r="R24" t="n">
-        <v>6635046.777041948</v>
+        <v>6635069.090440127</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964088</v>
+        <v>111964100</v>
       </c>
       <c r="B29" t="n">
-        <v>90689</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3817,38 +3817,43 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572531.178093905</v>
+        <v>572399.2664482036</v>
       </c>
       <c r="R29" t="n">
-        <v>6635151.196164564</v>
+        <v>6635305.942523698</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3917,7 +3922,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964100</v>
+        <v>111964099</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3962,10 +3967,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572399.2664482036</v>
+        <v>572397.1455479467</v>
       </c>
       <c r="R30" t="n">
-        <v>6635305.942523698</v>
+        <v>6635311.429904899</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4034,10 +4039,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964099</v>
+        <v>111964112</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4046,31 +4051,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4079,10 +4084,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572397.1455479467</v>
+        <v>572356.2636580318</v>
       </c>
       <c r="R31" t="n">
-        <v>6635311.429904899</v>
+        <v>6635058.312529455</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4151,10 +4156,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964112</v>
+        <v>111964088</v>
       </c>
       <c r="B32" t="n">
-        <v>5113</v>
+        <v>90689</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4163,43 +4168,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572356.2636580318</v>
+        <v>572531.178093905</v>
       </c>
       <c r="R32" t="n">
-        <v>6635058.312529455</v>
+        <v>6635151.196164564</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964079</v>
+        <v>111964084</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>89845</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1209</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572508.5941006967</v>
+        <v>572617.2972367437</v>
       </c>
       <c r="R2" t="n">
-        <v>6635199.007651598</v>
+        <v>6635227.269214762</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,6 +774,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -797,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964107</v>
+        <v>111964088</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>90689</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,43 +805,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572347.9538572846</v>
+        <v>572531.178093905</v>
       </c>
       <c r="R3" t="n">
-        <v>6635252.167235874</v>
+        <v>6635151.196164564</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +905,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964063</v>
+        <v>111964095</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,38 +917,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572637.7864215365</v>
+        <v>572522.4578243491</v>
       </c>
       <c r="R4" t="n">
-        <v>6635260.843257532</v>
+        <v>6635185.204844719</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,7 +1022,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964101</v>
+        <v>111964096</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1071,10 +1067,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572397.2533403626</v>
+        <v>572431.0643658402</v>
       </c>
       <c r="R5" t="n">
-        <v>6635305.903259245</v>
+        <v>6635250.269680216</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1139,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964075</v>
+        <v>111964091</v>
       </c>
       <c r="B6" t="n">
-        <v>56543</v>
+        <v>90123</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,47 +1151,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>1105</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572347.9538572846</v>
+        <v>572482.6995120253</v>
       </c>
       <c r="R6" t="n">
-        <v>6635252.167235874</v>
+        <v>6635029.614818911</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,7 +1251,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964095</v>
+        <v>111964100</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1309,10 +1296,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572522.4578243491</v>
+        <v>572399.2664482036</v>
       </c>
       <c r="R7" t="n">
-        <v>6635185.204844719</v>
+        <v>6635305.942523698</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1381,10 +1368,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964097</v>
+        <v>111964111</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,31 +1380,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1426,10 +1413,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572392.0085447398</v>
+        <v>572531.2343797031</v>
       </c>
       <c r="R8" t="n">
-        <v>6635342.491595642</v>
+        <v>6635122.546929917</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1498,10 +1485,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964062</v>
+        <v>111964066</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>89601</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,25 +1497,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>1106</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1538,10 +1525,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572498.1579318554</v>
+        <v>572543.9692712617</v>
       </c>
       <c r="R9" t="n">
-        <v>6635063.091541843</v>
+        <v>6635166.52515117</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1610,10 +1597,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964085</v>
+        <v>111964063</v>
       </c>
       <c r="B10" t="n">
-        <v>89845</v>
+        <v>89369</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,41 +1609,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572347.9538572846</v>
+        <v>572637.7864215365</v>
       </c>
       <c r="R10" t="n">
-        <v>6635252.167235874</v>
+        <v>6635260.843257532</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1707,7 +1691,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1726,10 +1709,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964109</v>
+        <v>111964106</v>
       </c>
       <c r="B11" t="n">
-        <v>83366</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1738,38 +1721,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>241</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572482.9349674499</v>
+        <v>572621.5437408438</v>
       </c>
       <c r="R11" t="n">
-        <v>6635017.555758155</v>
+        <v>6635267.562138557</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1838,10 +1826,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964073</v>
+        <v>111964108</v>
       </c>
       <c r="B12" t="n">
-        <v>4711</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1850,31 +1838,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100299</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1883,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572543.9889093617</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R12" t="n">
-        <v>6635165.520267763</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964089</v>
+        <v>111964115</v>
       </c>
       <c r="B13" t="n">
-        <v>56404</v>
+        <v>8367</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1967,35 +1955,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100048</v>
+        <v>106554</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2004,13 +1988,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572574.3975851728</v>
+        <v>572413.4467321351</v>
       </c>
       <c r="R13" t="n">
-        <v>6635206.827772016</v>
+        <v>6634862.88732568</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2076,10 +2060,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964090</v>
+        <v>111964099</v>
       </c>
       <c r="B14" t="n">
-        <v>90123</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2092,34 +2076,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572484.5950392252</v>
+        <v>572397.1455479467</v>
       </c>
       <c r="R14" t="n">
-        <v>6635035.683644415</v>
+        <v>6635311.429904899</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2188,10 +2177,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964080</v>
+        <v>111964109</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>83366</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,39 +2193,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>241</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572551.8845251498</v>
+        <v>572482.9349674499</v>
       </c>
       <c r="R15" t="n">
-        <v>6635173.716707909</v>
+        <v>6635017.555758155</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2305,10 +2289,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964104</v>
+        <v>111964079</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2317,31 +2301,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2350,10 +2334,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572636.8271442646</v>
+        <v>572508.5941006967</v>
       </c>
       <c r="R16" t="n">
-        <v>6635232.677581957</v>
+        <v>6635199.007651598</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,10 +2406,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964074</v>
+        <v>111964090</v>
       </c>
       <c r="B17" t="n">
-        <v>56543</v>
+        <v>90123</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2434,47 +2418,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>1105</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572451.3179004347</v>
+        <v>572484.5950392252</v>
       </c>
       <c r="R17" t="n">
-        <v>6634883.230436426</v>
+        <v>6635035.683644415</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2543,10 +2518,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964114</v>
+        <v>111964102</v>
       </c>
       <c r="B18" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2555,31 +2530,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2588,10 +2563,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572629.537274144</v>
+        <v>572412.0221011948</v>
       </c>
       <c r="R18" t="n">
-        <v>6635270.734256107</v>
+        <v>6634910.110561746</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2660,10 +2635,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964068</v>
+        <v>111964112</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,38 +2647,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572624.3275140596</v>
+        <v>572356.2636580318</v>
       </c>
       <c r="R19" t="n">
-        <v>6635279.679472073</v>
+        <v>6635058.312529455</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2772,7 +2752,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964103</v>
+        <v>111964105</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2817,10 +2797,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572486.3924484762</v>
+        <v>572625.6289808374</v>
       </c>
       <c r="R20" t="n">
-        <v>6635046.777041948</v>
+        <v>6635264.626341943</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2889,10 +2869,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964111</v>
+        <v>111964075</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2901,31 +2881,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2934,10 +2918,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572531.2343797031</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R21" t="n">
-        <v>6635122.546929917</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +2990,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964102</v>
+        <v>111964068</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,43 +3002,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572412.0221011948</v>
+        <v>572624.3275140596</v>
       </c>
       <c r="R22" t="n">
-        <v>6634910.110561746</v>
+        <v>6635279.679472073</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3123,10 +3102,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964091</v>
+        <v>111964113</v>
       </c>
       <c r="B23" t="n">
-        <v>90123</v>
+        <v>5113</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3135,38 +3114,43 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1105</v>
+        <v>100526</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572482.6995120253</v>
+        <v>572545.8177945263</v>
       </c>
       <c r="R23" t="n">
-        <v>6635029.614818911</v>
+        <v>6635097.699846692</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3235,10 +3219,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964067</v>
+        <v>111964114</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3247,38 +3231,43 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572522.2088334097</v>
+        <v>572629.537274144</v>
       </c>
       <c r="R24" t="n">
-        <v>6635069.090440127</v>
+        <v>6635270.734256107</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3347,10 +3336,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964106</v>
+        <v>111964089</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>56404</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3359,31 +3348,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>100048</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3392,13 +3385,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572621.5437408438</v>
+        <v>572574.3975851728</v>
       </c>
       <c r="R25" t="n">
-        <v>6635267.562138557</v>
+        <v>6635206.827772016</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3464,10 +3457,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964066</v>
+        <v>111964073</v>
       </c>
       <c r="B26" t="n">
-        <v>89601</v>
+        <v>4711</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3476,38 +3469,43 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1106</v>
+        <v>100299</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572543.9692712617</v>
+        <v>572543.9889093617</v>
       </c>
       <c r="R26" t="n">
-        <v>6635166.52515117</v>
+        <v>6635165.520267763</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3576,7 +3574,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964098</v>
+        <v>111964097</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3621,10 +3619,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572398.8058685388</v>
+        <v>572392.0085447398</v>
       </c>
       <c r="R27" t="n">
-        <v>6635329.556315796</v>
+        <v>6635342.491595642</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3693,10 +3691,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964064</v>
+        <v>111964104</v>
       </c>
       <c r="B28" t="n">
-        <v>89601</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3709,34 +3707,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1106</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572398.4922834886</v>
+        <v>572636.8271442646</v>
       </c>
       <c r="R28" t="n">
-        <v>6635345.633705587</v>
+        <v>6635232.677581957</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3805,10 +3808,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964100</v>
+        <v>111964085</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3821,39 +3824,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572399.2664482036</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R29" t="n">
-        <v>6635305.942523698</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3904,6 +3905,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3922,10 +3924,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964099</v>
+        <v>111964061</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3934,43 +3936,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572397.1455479467</v>
+        <v>572376.3312293739</v>
       </c>
       <c r="R30" t="n">
-        <v>6635311.429904899</v>
+        <v>6635294.437731684</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4039,10 +4036,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964112</v>
+        <v>111964098</v>
       </c>
       <c r="B31" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4051,31 +4048,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4084,10 +4081,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572356.2636580318</v>
+        <v>572398.8058685388</v>
       </c>
       <c r="R31" t="n">
-        <v>6635058.312529455</v>
+        <v>6635329.556315796</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4156,10 +4153,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964088</v>
+        <v>111964067</v>
       </c>
       <c r="B32" t="n">
-        <v>90689</v>
+        <v>89405</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4172,21 +4169,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5966</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4196,10 +4193,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572531.178093905</v>
+        <v>572522.2088334097</v>
       </c>
       <c r="R32" t="n">
-        <v>6635151.196164564</v>
+        <v>6635069.090440127</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4268,10 +4265,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964084</v>
+        <v>111964103</v>
       </c>
       <c r="B33" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4284,34 +4281,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572617.2972367437</v>
+        <v>572486.3924484762</v>
       </c>
       <c r="R33" t="n">
-        <v>6635227.269214762</v>
+        <v>6635046.777041948</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4362,7 +4364,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4381,10 +4382,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964113</v>
+        <v>111964101</v>
       </c>
       <c r="B34" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4393,31 +4394,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4426,10 +4427,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572545.8177945263</v>
+        <v>572397.2533403626</v>
       </c>
       <c r="R34" t="n">
-        <v>6635097.699846692</v>
+        <v>6635305.903259245</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4498,10 +4499,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964115</v>
+        <v>111964074</v>
       </c>
       <c r="B35" t="n">
-        <v>8367</v>
+        <v>56543</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4510,31 +4511,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>106554</v>
+        <v>103021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4543,10 +4548,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572413.4467321351</v>
+        <v>572451.3179004347</v>
       </c>
       <c r="R35" t="n">
-        <v>6634862.88732568</v>
+        <v>6634883.230436426</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4615,10 +4620,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964061</v>
+        <v>111964064</v>
       </c>
       <c r="B36" t="n">
-        <v>89369</v>
+        <v>89601</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4627,25 +4632,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>1106</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4655,10 +4660,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572376.3312293739</v>
+        <v>572398.4922834886</v>
       </c>
       <c r="R36" t="n">
-        <v>6635294.437731684</v>
+        <v>6635345.633705587</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4727,10 +4732,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111964096</v>
+        <v>111964080</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4739,31 +4744,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4772,10 +4777,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572431.0643658402</v>
+        <v>572551.8845251498</v>
       </c>
       <c r="R37" t="n">
-        <v>6635250.269680216</v>
+        <v>6635173.716707909</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4844,10 +4849,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111964105</v>
+        <v>111964062</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4856,43 +4861,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572625.6289808374</v>
+        <v>572498.1579318554</v>
       </c>
       <c r="R38" t="n">
-        <v>6635264.626341943</v>
+        <v>6635063.091541843</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -1709,7 +1709,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964106</v>
+        <v>111964108</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572621.5437408438</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R11" t="n">
-        <v>6635267.562138557</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964108</v>
+        <v>111964106</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572347.9538572846</v>
+        <v>572621.5437408438</v>
       </c>
       <c r="R12" t="n">
-        <v>6635252.167235874</v>
+        <v>6635267.562138557</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964084</v>
+        <v>111964098</v>
       </c>
       <c r="B2" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572617.2972367437</v>
+        <v>572398.8058685388</v>
       </c>
       <c r="R2" t="n">
-        <v>6635227.269214762</v>
+        <v>6635329.556315796</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +779,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964088</v>
+        <v>111964080</v>
       </c>
       <c r="B3" t="n">
-        <v>90689</v>
+        <v>56414</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,34 +813,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572531.178093905</v>
+        <v>572551.8845251498</v>
       </c>
       <c r="R3" t="n">
-        <v>6635151.196164564</v>
+        <v>6635173.716707909</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964095</v>
+        <v>111964091</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>90123</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,39 +930,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572522.4578243491</v>
+        <v>572482.6995120253</v>
       </c>
       <c r="R4" t="n">
-        <v>6635185.204844719</v>
+        <v>6635029.614818911</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1022,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964096</v>
+        <v>111964064</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89601</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,39 +1042,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>1106</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572431.0643658402</v>
+        <v>572398.4922834886</v>
       </c>
       <c r="R5" t="n">
-        <v>6635250.269680216</v>
+        <v>6635345.633705587</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1139,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964091</v>
+        <v>111964096</v>
       </c>
       <c r="B6" t="n">
-        <v>90123</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,34 +1154,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572482.6995120253</v>
+        <v>572431.0643658402</v>
       </c>
       <c r="R6" t="n">
-        <v>6635029.614818911</v>
+        <v>6635250.269680216</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,7 +1255,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964100</v>
+        <v>111964105</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1296,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572399.2664482036</v>
+        <v>572625.6289808374</v>
       </c>
       <c r="R7" t="n">
-        <v>6635305.942523698</v>
+        <v>6635264.626341943</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1368,10 +1372,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964111</v>
+        <v>111964068</v>
       </c>
       <c r="B8" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,43 +1384,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572531.2343797031</v>
+        <v>572624.3275140596</v>
       </c>
       <c r="R8" t="n">
-        <v>6635122.546929917</v>
+        <v>6635279.679472073</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1485,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964066</v>
+        <v>111964104</v>
       </c>
       <c r="B9" t="n">
-        <v>89601</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1501,34 +1500,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1106</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572543.9692712617</v>
+        <v>572636.8271442646</v>
       </c>
       <c r="R9" t="n">
-        <v>6635166.52515117</v>
+        <v>6635232.677581957</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1597,10 +1601,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964063</v>
+        <v>111964103</v>
       </c>
       <c r="B10" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1609,38 +1613,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572637.7864215365</v>
+        <v>572486.3924484762</v>
       </c>
       <c r="R10" t="n">
-        <v>6635260.843257532</v>
+        <v>6635046.777041948</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1709,10 +1718,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964108</v>
+        <v>111964085</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,29 +1734,27 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
@@ -1808,6 +1815,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1826,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964106</v>
+        <v>111964115</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1838,31 +1846,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1871,10 +1879,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572621.5437408438</v>
+        <v>572413.4467321351</v>
       </c>
       <c r="R12" t="n">
-        <v>6635267.562138557</v>
+        <v>6634862.88732568</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1943,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964115</v>
+        <v>111964095</v>
       </c>
       <c r="B13" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1955,31 +1963,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1988,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572413.4467321351</v>
+        <v>572522.4578243491</v>
       </c>
       <c r="R13" t="n">
-        <v>6634862.88732568</v>
+        <v>6635185.204844719</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,10 +2068,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964099</v>
+        <v>111964113</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,31 +2080,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2105,10 +2113,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572397.1455479467</v>
+        <v>572545.8177945263</v>
       </c>
       <c r="R14" t="n">
-        <v>6635311.429904899</v>
+        <v>6635097.699846692</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,10 +2185,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964109</v>
+        <v>111964073</v>
       </c>
       <c r="B15" t="n">
-        <v>83366</v>
+        <v>4711</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2189,38 +2197,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>241</v>
+        <v>100299</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572482.9349674499</v>
+        <v>572543.9889093617</v>
       </c>
       <c r="R15" t="n">
-        <v>6635017.555758155</v>
+        <v>6635165.520267763</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2289,10 +2302,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964079</v>
+        <v>111964066</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>89601</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2301,43 +2314,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>1106</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572508.5941006967</v>
+        <v>572543.9692712617</v>
       </c>
       <c r="R16" t="n">
-        <v>6635199.007651598</v>
+        <v>6635166.52515117</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2406,10 +2414,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964090</v>
+        <v>111964061</v>
       </c>
       <c r="B17" t="n">
-        <v>90123</v>
+        <v>89369</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2418,25 +2426,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1105</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2446,10 +2454,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572484.5950392252</v>
+        <v>572376.3312293739</v>
       </c>
       <c r="R17" t="n">
-        <v>6635035.683644415</v>
+        <v>6635294.437731684</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2518,7 +2526,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964102</v>
+        <v>111964100</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2563,10 +2571,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572412.0221011948</v>
+        <v>572399.2664482036</v>
       </c>
       <c r="R18" t="n">
-        <v>6634910.110561746</v>
+        <v>6635305.942523698</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2635,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964112</v>
+        <v>111964102</v>
       </c>
       <c r="B19" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2647,31 +2655,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2680,10 +2688,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572356.2636580318</v>
+        <v>572412.0221011948</v>
       </c>
       <c r="R19" t="n">
-        <v>6635058.312529455</v>
+        <v>6634910.110561746</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2752,10 +2760,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964105</v>
+        <v>111964075</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2764,31 +2772,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2797,10 +2809,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572625.6289808374</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R20" t="n">
-        <v>6635264.626341943</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2869,10 +2881,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964075</v>
+        <v>111964084</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>89845</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2881,47 +2893,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572347.9538572846</v>
+        <v>572617.2972367437</v>
       </c>
       <c r="R21" t="n">
-        <v>6635252.167235874</v>
+        <v>6635227.269214762</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2972,6 +2975,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2990,10 +2994,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964068</v>
+        <v>111964088</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>90689</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3006,21 +3010,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3030,10 +3034,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572624.3275140596</v>
+        <v>572531.178093905</v>
       </c>
       <c r="R22" t="n">
-        <v>6635279.679472073</v>
+        <v>6635151.196164564</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3102,10 +3106,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964113</v>
+        <v>111964074</v>
       </c>
       <c r="B23" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3114,31 +3118,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3147,10 +3155,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572545.8177945263</v>
+        <v>572451.3179004347</v>
       </c>
       <c r="R23" t="n">
-        <v>6635097.699846692</v>
+        <v>6634883.230436426</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3219,10 +3227,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964114</v>
+        <v>111964079</v>
       </c>
       <c r="B24" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3231,31 +3239,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3264,10 +3272,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572629.537274144</v>
+        <v>572508.5941006967</v>
       </c>
       <c r="R24" t="n">
-        <v>6635270.734256107</v>
+        <v>6635199.007651598</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3336,10 +3344,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964089</v>
+        <v>111964090</v>
       </c>
       <c r="B25" t="n">
-        <v>56404</v>
+        <v>90123</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3348,50 +3356,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100048</v>
+        <v>1105</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572574.3975851728</v>
+        <v>572484.5950392252</v>
       </c>
       <c r="R25" t="n">
-        <v>6635206.827772016</v>
+        <v>6635035.683644415</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3457,10 +3456,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964073</v>
+        <v>111964111</v>
       </c>
       <c r="B26" t="n">
-        <v>4711</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3473,21 +3472,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100299</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3502,10 +3501,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572543.9889093617</v>
+        <v>572531.2343797031</v>
       </c>
       <c r="R26" t="n">
-        <v>6635165.520267763</v>
+        <v>6635122.546929917</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3574,7 +3573,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964097</v>
+        <v>111964106</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3619,10 +3618,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572392.0085447398</v>
+        <v>572621.5437408438</v>
       </c>
       <c r="R27" t="n">
-        <v>6635342.491595642</v>
+        <v>6635267.562138557</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3691,7 +3690,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964104</v>
+        <v>111964108</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3736,10 +3735,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572636.8271442646</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R28" t="n">
-        <v>6635232.677581957</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3808,10 +3807,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964085</v>
+        <v>111964067</v>
       </c>
       <c r="B29" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3820,41 +3819,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572347.9538572846</v>
+        <v>572522.2088334097</v>
       </c>
       <c r="R29" t="n">
-        <v>6635252.167235874</v>
+        <v>6635069.090440127</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3905,7 +3901,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3924,10 +3919,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964061</v>
+        <v>111964099</v>
       </c>
       <c r="B30" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3936,38 +3931,43 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572376.3312293739</v>
+        <v>572397.1455479467</v>
       </c>
       <c r="R30" t="n">
-        <v>6635294.437731684</v>
+        <v>6635311.429904899</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964098</v>
+        <v>111964063</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4048,43 +4048,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572398.8058685388</v>
+        <v>572637.7864215365</v>
       </c>
       <c r="R31" t="n">
-        <v>6635329.556315796</v>
+        <v>6635260.843257532</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4153,10 +4148,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964067</v>
+        <v>111964101</v>
       </c>
       <c r="B32" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4165,38 +4160,43 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572522.2088334097</v>
+        <v>572397.2533403626</v>
       </c>
       <c r="R32" t="n">
-        <v>6635069.090440127</v>
+        <v>6635305.903259245</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964103</v>
+        <v>111964114</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4277,31 +4277,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572486.3924484762</v>
+        <v>572629.537274144</v>
       </c>
       <c r="R33" t="n">
-        <v>6635046.777041948</v>
+        <v>6635270.734256107</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964101</v>
+        <v>111964097</v>
       </c>
       <c r="B34" t="n">
         <v>96348</v>
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572397.2533403626</v>
+        <v>572392.0085447398</v>
       </c>
       <c r="R34" t="n">
-        <v>6635305.903259245</v>
+        <v>6635342.491595642</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964074</v>
+        <v>111964089</v>
       </c>
       <c r="B35" t="n">
-        <v>56543</v>
+        <v>56404</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4515,21 +4515,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>100048</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4548,13 +4548,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572451.3179004347</v>
+        <v>572574.3975851728</v>
       </c>
       <c r="R35" t="n">
-        <v>6634883.230436426</v>
+        <v>6635206.827772016</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4620,10 +4620,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964064</v>
+        <v>111964112</v>
       </c>
       <c r="B36" t="n">
-        <v>89601</v>
+        <v>5113</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4632,38 +4632,43 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1106</v>
+        <v>100526</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572398.4922834886</v>
+        <v>572356.2636580318</v>
       </c>
       <c r="R36" t="n">
-        <v>6635345.633705587</v>
+        <v>6635058.312529455</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4732,10 +4737,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111964080</v>
+        <v>111964109</v>
       </c>
       <c r="B37" t="n">
-        <v>56414</v>
+        <v>83366</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4748,39 +4753,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>241</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572551.8845251498</v>
+        <v>572482.9349674499</v>
       </c>
       <c r="R37" t="n">
-        <v>6635173.716707909</v>
+        <v>6635017.555758155</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AY84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964098</v>
+        <v>111964101</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572398.8058685388</v>
+        <v>572397.2533403626</v>
       </c>
       <c r="R2" t="n">
-        <v>6635329.556315796</v>
+        <v>6635305.903259245</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964080</v>
+        <v>111964115</v>
       </c>
       <c r="B3" t="n">
-        <v>56414</v>
+        <v>8367</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,31 +809,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572551.8845251498</v>
+        <v>572413.4467321351</v>
       </c>
       <c r="R3" t="n">
-        <v>6635173.716707909</v>
+        <v>6634862.88732568</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964091</v>
+        <v>111964097</v>
       </c>
       <c r="B4" t="n">
-        <v>90123</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,34 +930,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572482.6995120253</v>
+        <v>572392.0085447398</v>
       </c>
       <c r="R4" t="n">
-        <v>6635029.614818911</v>
+        <v>6635342.491595642</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1026,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964064</v>
+        <v>111964075</v>
       </c>
       <c r="B5" t="n">
-        <v>89601</v>
+        <v>56543</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1043,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1106</v>
+        <v>103021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572398.4922834886</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R5" t="n">
-        <v>6635345.633705587</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1138,10 +1152,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964096</v>
+        <v>111964067</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,43 +1164,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572431.0643658402</v>
+        <v>572522.2088334097</v>
       </c>
       <c r="R6" t="n">
-        <v>6635250.269680216</v>
+        <v>6635069.090440127</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1255,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964105</v>
+        <v>111964113</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,31 +1276,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1300,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572625.6289808374</v>
+        <v>572545.8177945263</v>
       </c>
       <c r="R7" t="n">
-        <v>6635264.626341943</v>
+        <v>6635097.699846692</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964068</v>
+        <v>111964061</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1384,25 +1393,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1412,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572624.3275140596</v>
+        <v>572376.3312293739</v>
       </c>
       <c r="R8" t="n">
-        <v>6635279.679472073</v>
+        <v>6635294.437731684</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1484,10 +1493,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964104</v>
+        <v>111964074</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,31 +1505,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1529,10 +1542,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572636.8271442646</v>
+        <v>572451.3179004347</v>
       </c>
       <c r="R9" t="n">
-        <v>6635232.677581957</v>
+        <v>6634883.230436426</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1601,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964103</v>
+        <v>111964068</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1613,43 +1626,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572486.3924484762</v>
+        <v>572624.3275140596</v>
       </c>
       <c r="R10" t="n">
-        <v>6635046.777041948</v>
+        <v>6635279.679472073</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1718,10 +1726,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964085</v>
+        <v>111964105</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,37 +1742,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572347.9538572846</v>
+        <v>572625.6289808374</v>
       </c>
       <c r="R11" t="n">
-        <v>6635252.167235874</v>
+        <v>6635264.626341943</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,7 +1825,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1834,10 +1843,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964115</v>
+        <v>111964073</v>
       </c>
       <c r="B12" t="n">
-        <v>8367</v>
+        <v>4711</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1850,27 +1859,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106554</v>
+        <v>100299</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1879,10 +1888,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572413.4467321351</v>
+        <v>572543.9889093617</v>
       </c>
       <c r="R12" t="n">
-        <v>6634862.88732568</v>
+        <v>6635165.520267763</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1951,10 +1960,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964095</v>
+        <v>111964089</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56404</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,31 +1972,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100048</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1996,13 +2009,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572522.4578243491</v>
+        <v>572574.3975851728</v>
       </c>
       <c r="R13" t="n">
-        <v>6635185.204844719</v>
+        <v>6635206.827772016</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2068,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964113</v>
+        <v>111964095</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2080,31 +2093,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2113,10 +2126,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572545.8177945263</v>
+        <v>572522.4578243491</v>
       </c>
       <c r="R14" t="n">
-        <v>6635097.699846692</v>
+        <v>6635185.204844719</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2185,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964073</v>
+        <v>111964063</v>
       </c>
       <c r="B15" t="n">
-        <v>4711</v>
+        <v>89369</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2201,39 +2214,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100299</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572543.9889093617</v>
+        <v>572637.7864215365</v>
       </c>
       <c r="R15" t="n">
-        <v>6635165.520267763</v>
+        <v>6635260.843257532</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2302,10 +2310,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964066</v>
+        <v>111964109</v>
       </c>
       <c r="B16" t="n">
-        <v>89601</v>
+        <v>83366</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2314,25 +2322,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1106</v>
+        <v>241</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2342,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572543.9692712617</v>
+        <v>572482.9349674499</v>
       </c>
       <c r="R16" t="n">
-        <v>6635166.52515117</v>
+        <v>6635017.555758155</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2414,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964061</v>
+        <v>111964066</v>
       </c>
       <c r="B17" t="n">
-        <v>89369</v>
+        <v>89601</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2426,25 +2434,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>1106</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2454,10 +2462,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572376.3312293739</v>
+        <v>572543.9692712617</v>
       </c>
       <c r="R17" t="n">
-        <v>6635294.437731684</v>
+        <v>6635166.52515117</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2526,7 +2534,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964100</v>
+        <v>111964102</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2571,10 +2579,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572399.2664482036</v>
+        <v>572412.0221011948</v>
       </c>
       <c r="R18" t="n">
-        <v>6635305.942523698</v>
+        <v>6634910.110561746</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,10 +2651,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964102</v>
+        <v>111964064</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>89601</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2659,39 +2667,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>1106</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572412.0221011948</v>
+        <v>572398.4922834886</v>
       </c>
       <c r="R19" t="n">
-        <v>6634910.110561746</v>
+        <v>6635345.633705587</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2760,10 +2763,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964075</v>
+        <v>111964108</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2772,35 +2775,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2881,10 +2880,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964084</v>
+        <v>111964104</v>
       </c>
       <c r="B21" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2897,34 +2896,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572617.2972367437</v>
+        <v>572636.8271442646</v>
       </c>
       <c r="R21" t="n">
-        <v>6635227.269214762</v>
+        <v>6635232.677581957</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2975,7 +2979,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2994,10 +2997,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964088</v>
+        <v>111964100</v>
       </c>
       <c r="B22" t="n">
-        <v>90689</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3006,38 +3009,43 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572531.178093905</v>
+        <v>572399.2664482036</v>
       </c>
       <c r="R22" t="n">
-        <v>6635151.196164564</v>
+        <v>6635305.942523698</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3106,10 +3114,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964074</v>
+        <v>111964062</v>
       </c>
       <c r="B23" t="n">
-        <v>56543</v>
+        <v>89369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3118,47 +3126,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572451.3179004347</v>
+        <v>572498.1579318554</v>
       </c>
       <c r="R23" t="n">
-        <v>6634883.230436426</v>
+        <v>6635063.091541843</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3227,10 +3226,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964079</v>
+        <v>111964112</v>
       </c>
       <c r="B24" t="n">
-        <v>56414</v>
+        <v>5113</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3239,31 +3238,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3272,10 +3271,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572508.5941006967</v>
+        <v>572356.2636580318</v>
       </c>
       <c r="R24" t="n">
-        <v>6635199.007651598</v>
+        <v>6635058.312529455</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3344,10 +3343,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964090</v>
+        <v>111964088</v>
       </c>
       <c r="B25" t="n">
-        <v>90123</v>
+        <v>90689</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3356,25 +3355,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1105</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3384,10 +3383,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572484.5950392252</v>
+        <v>572531.178093905</v>
       </c>
       <c r="R25" t="n">
-        <v>6635035.683644415</v>
+        <v>6635151.196164564</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3456,10 +3455,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964111</v>
+        <v>111964091</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>90123</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3468,43 +3467,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>1105</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572531.2343797031</v>
+        <v>572482.6995120253</v>
       </c>
       <c r="R26" t="n">
-        <v>6635122.546929917</v>
+        <v>6635029.614818911</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3573,10 +3567,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964106</v>
+        <v>111964090</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>90123</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3589,39 +3583,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572621.5437408438</v>
+        <v>572484.5950392252</v>
       </c>
       <c r="R27" t="n">
-        <v>6635267.562138557</v>
+        <v>6635035.683644415</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3690,7 +3679,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964108</v>
+        <v>111964106</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3735,10 +3724,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572347.9538572846</v>
+        <v>572621.5437408438</v>
       </c>
       <c r="R28" t="n">
-        <v>6635252.167235874</v>
+        <v>6635267.562138557</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3807,10 +3796,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964067</v>
+        <v>111964103</v>
       </c>
       <c r="B29" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3819,38 +3808,43 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572522.2088334097</v>
+        <v>572486.3924484762</v>
       </c>
       <c r="R29" t="n">
-        <v>6635069.090440127</v>
+        <v>6635046.777041948</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3919,7 +3913,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964099</v>
+        <v>111964098</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3964,10 +3958,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572397.1455479467</v>
+        <v>572398.8058685388</v>
       </c>
       <c r="R30" t="n">
-        <v>6635311.429904899</v>
+        <v>6635329.556315796</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4036,10 +4030,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964063</v>
+        <v>111964114</v>
       </c>
       <c r="B31" t="n">
-        <v>89369</v>
+        <v>5113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4052,34 +4046,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572637.7864215365</v>
+        <v>572629.537274144</v>
       </c>
       <c r="R31" t="n">
-        <v>6635260.843257532</v>
+        <v>6635270.734256107</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4148,10 +4147,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964101</v>
+        <v>111964080</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4160,31 +4159,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4193,10 +4192,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572397.2533403626</v>
+        <v>572551.8845251498</v>
       </c>
       <c r="R32" t="n">
-        <v>6635305.903259245</v>
+        <v>6635173.716707909</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4265,7 +4264,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964114</v>
+        <v>111964111</v>
       </c>
       <c r="B33" t="n">
         <v>5113</v>
@@ -4310,10 +4309,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572629.537274144</v>
+        <v>572531.2343797031</v>
       </c>
       <c r="R33" t="n">
-        <v>6635270.734256107</v>
+        <v>6635122.546929917</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4382,7 +4381,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964097</v>
+        <v>111964099</v>
       </c>
       <c r="B34" t="n">
         <v>96348</v>
@@ -4427,10 +4426,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572392.0085447398</v>
+        <v>572397.1455479467</v>
       </c>
       <c r="R34" t="n">
-        <v>6635342.491595642</v>
+        <v>6635311.429904899</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4499,10 +4498,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964089</v>
+        <v>111964079</v>
       </c>
       <c r="B35" t="n">
-        <v>56404</v>
+        <v>56414</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4515,16 +4514,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100048</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4532,14 +4531,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4548,13 +4543,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572574.3975851728</v>
+        <v>572508.5941006967</v>
       </c>
       <c r="R35" t="n">
-        <v>6635206.827772016</v>
+        <v>6635199.007651598</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4620,10 +4615,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964112</v>
+        <v>111964096</v>
       </c>
       <c r="B36" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4632,31 +4627,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4665,10 +4660,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572356.2636580318</v>
+        <v>572431.0643658402</v>
       </c>
       <c r="R36" t="n">
-        <v>6635058.312529455</v>
+        <v>6635250.269680216</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4737,10 +4732,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111964109</v>
+        <v>112103525</v>
       </c>
       <c r="B37" t="n">
-        <v>83366</v>
+        <v>90678</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4749,38 +4744,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>241</v>
+        <v>4366</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572482.9349674499</v>
+        <v>572321.1689640785</v>
       </c>
       <c r="R37" t="n">
-        <v>6635017.555758155</v>
+        <v>6635050.591590347</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4807,7 +4802,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4817,7 +4812,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4849,10 +4844,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111964062</v>
+        <v>112103550</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4861,38 +4856,43 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572498.1579318554</v>
+        <v>572366.6854371058</v>
       </c>
       <c r="R38" t="n">
-        <v>6635063.091541843</v>
+        <v>6635195.233154469</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4958,6 +4958,5357 @@
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112103514</v>
+      </c>
+      <c r="B39" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>572346.9631606771</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6635096.33223252</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112103547</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>572369.3609577138</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6635135.472035047</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112103546</v>
+      </c>
+      <c r="B41" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>572416.1767061361</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6634981.06701599</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112103544</v>
+      </c>
+      <c r="B42" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>572422.677647528</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6635034.977827928</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112103534</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>572398.6385653759</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6635260.694757356</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112103562</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>572377.3917188714</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6635188.40508303</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112103553</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>572355.1565329297</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6635244.265684937</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112103549</v>
+      </c>
+      <c r="B46" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>572372.940450243</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6635184.297256649</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112103521</v>
+      </c>
+      <c r="B47" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>572349.4994006816</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6634966.195167584</v>
+      </c>
+      <c r="S47" t="n">
+        <v>50</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112103519</v>
+      </c>
+      <c r="B48" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>572345.551152845</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6634962.096946042</v>
+      </c>
+      <c r="S48" t="n">
+        <v>50</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112103555</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>572367.4877119045</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6635283.207756522</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112103527</v>
+      </c>
+      <c r="B50" t="n">
+        <v>88948</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5733</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Såpfingersvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Ramaria lutea</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Vent.) Schild</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>572359.594763845</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6635094.065222727</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112103543</v>
+      </c>
+      <c r="B51" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>572413.1671421975</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6635057.914149365</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111964084</v>
+      </c>
+      <c r="B52" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>572617.2972367437</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6635227.269214762</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112103563</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90018</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1339</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pycnoporellus fulgens</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>572361.8288169382</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6635186.091152476</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112103526</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>572343.7533627308</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6635080.185106683</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112103551</v>
+      </c>
+      <c r="B55" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>572349.3776555649</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6635204.948334173</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112103552</v>
+      </c>
+      <c r="B56" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>572358.9145870581</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6635232.275995146</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112103541</v>
+      </c>
+      <c r="B57" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>572420.8868327751</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6635075.154714914</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112103513</v>
+      </c>
+      <c r="B58" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>572341.7597158444</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6635079.140966787</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>112103518</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>572391.9105156329</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6635063.53132685</v>
+      </c>
+      <c r="S59" t="n">
+        <v>50</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>112103561</v>
+      </c>
+      <c r="B60" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>572285.1631843462</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6634908.643639773</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>112103532</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>572381.684763086</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6635329.725023665</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>112103548</v>
+      </c>
+      <c r="B62" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>572360.7400891574</v>
+      </c>
+      <c r="R62" t="n">
+        <v>6635164.45678684</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>112103517</v>
+      </c>
+      <c r="B63" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>572367.7229917983</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6634935.385356643</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>112103511</v>
+      </c>
+      <c r="B64" t="n">
+        <v>94134</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>53</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>572312.6870405492</v>
+      </c>
+      <c r="R64" t="n">
+        <v>6634839.810999912</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>112103529</v>
+      </c>
+      <c r="B65" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>572285.7687057387</v>
+      </c>
+      <c r="R65" t="n">
+        <v>6634929.264707729</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>112103528</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>572399.2401777974</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6634971.688825586</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>112103523</v>
+      </c>
+      <c r="B67" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>572413.1671421975</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6635057.914149365</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>112103538</v>
+      </c>
+      <c r="B68" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>572446.1891324359</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6635223.423173347</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>112103536</v>
+      </c>
+      <c r="B69" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>572392.1021255963</v>
+      </c>
+      <c r="R69" t="n">
+        <v>6635234.430948168</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>112103516</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6202</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>105336</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Vanlig flatbagge</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Peltis ferruginea</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>572356.8154726005</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6635184.988167396</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>112103559</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12585</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>102217</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tallbarksvartbagge</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Corticeus fraxini</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(Kugelann, 1794)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>572408.4371859068</v>
+      </c>
+      <c r="R71" t="n">
+        <v>6634964.830968197</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>112103540</v>
+      </c>
+      <c r="B72" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>572422.7824349639</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6635081.223432682</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>112103545</v>
+      </c>
+      <c r="B73" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>572405.2016443094</v>
+      </c>
+      <c r="R73" t="n">
+        <v>6634975.826361955</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>112103520</v>
+      </c>
+      <c r="B74" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>572409.3458258022</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6634969.875286552</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>112103539</v>
+      </c>
+      <c r="B75" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>572444.8101381793</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6635165.091275458</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>112103542</v>
+      </c>
+      <c r="B76" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>572414.0757496187</v>
+      </c>
+      <c r="R76" t="n">
+        <v>6635062.958343645</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>111964085</v>
+      </c>
+      <c r="B77" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>572347.9538572846</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6635252.167235874</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>112103535</v>
+      </c>
+      <c r="B78" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>572399.9587191562</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6635244.636633337</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>112103512</v>
+      </c>
+      <c r="B79" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>572413.1671421975</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6635057.914149365</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>112103533</v>
+      </c>
+      <c r="B80" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>572387.2073968524</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6635304.702107777</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>112103515</v>
+      </c>
+      <c r="B81" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>572376.868833091</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6635189.400146827</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>112103554</v>
+      </c>
+      <c r="B82" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>572357.1696740503</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6635244.304926336</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>112103537</v>
+      </c>
+      <c r="B83" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>572432.8291249418</v>
+      </c>
+      <c r="R83" t="n">
+        <v>6635237.23593298</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>112103524</v>
+      </c>
+      <c r="B84" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>572330.8845039897</v>
+      </c>
+      <c r="R84" t="n">
+        <v>6635017.103323801</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -7392,10 +7392,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112103561</v>
+        <v>112103528</v>
       </c>
       <c r="B60" t="n">
-        <v>5113</v>
+        <v>8377</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7408,27 +7408,27 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100526</v>
+        <v>106545</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -7437,10 +7437,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>572285.1631843462</v>
+        <v>572399.2401777974</v>
       </c>
       <c r="R60" t="n">
-        <v>6634908.643639773</v>
+        <v>6634971.688825586</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112103532</v>
+        <v>112103561</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7521,31 +7521,31 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -7554,10 +7554,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>572381.684763086</v>
+        <v>572285.1631843462</v>
       </c>
       <c r="R61" t="n">
-        <v>6635329.725023665</v>
+        <v>6634908.643639773</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112103548</v>
+        <v>112103532</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>572360.7400891574</v>
+        <v>572381.684763086</v>
       </c>
       <c r="R62" t="n">
-        <v>6635164.45678684</v>
+        <v>6635329.725023665</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7743,10 +7743,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112103517</v>
+        <v>112103548</v>
       </c>
       <c r="B63" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7755,38 +7755,43 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>572367.7229917983</v>
+        <v>572360.7400891574</v>
       </c>
       <c r="R63" t="n">
-        <v>6634935.385356643</v>
+        <v>6635164.45678684</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7855,10 +7860,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112103511</v>
+        <v>112103517</v>
       </c>
       <c r="B64" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7871,21 +7876,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7895,10 +7900,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>572312.6870405492</v>
+        <v>572367.7229917983</v>
       </c>
       <c r="R64" t="n">
-        <v>6634839.810999912</v>
+        <v>6634935.385356643</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7967,10 +7972,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112103529</v>
+        <v>112103511</v>
       </c>
       <c r="B65" t="n">
-        <v>8377</v>
+        <v>94134</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7979,43 +7984,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>106545</v>
+        <v>53</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>572285.7687057387</v>
+        <v>572312.6870405492</v>
       </c>
       <c r="R65" t="n">
-        <v>6634929.264707729</v>
+        <v>6634839.810999912</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112103528</v>
+        <v>112103529</v>
       </c>
       <c r="B66" t="n">
         <v>8377</v>
@@ -8129,10 +8129,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>572399.2401777974</v>
+        <v>572285.7687057387</v>
       </c>
       <c r="R66" t="n">
-        <v>6634971.688825586</v>
+        <v>6634929.264707729</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112103545</v>
+        <v>112103542</v>
       </c>
       <c r="B73" t="n">
         <v>96348</v>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>572405.2016443094</v>
+        <v>572414.0757496187</v>
       </c>
       <c r="R73" t="n">
-        <v>6634975.826361955</v>
+        <v>6635062.958343645</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9046,10 +9046,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112103520</v>
+        <v>112103545</v>
       </c>
       <c r="B74" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9058,38 +9058,43 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>572409.3458258022</v>
+        <v>572405.2016443094</v>
       </c>
       <c r="R74" t="n">
-        <v>6634969.875286552</v>
+        <v>6634975.826361955</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9158,10 +9163,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112103539</v>
+        <v>112103520</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9170,43 +9175,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>572444.8101381793</v>
+        <v>572409.3458258022</v>
       </c>
       <c r="R75" t="n">
-        <v>6635165.091275458</v>
+        <v>6634969.875286552</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112103542</v>
+        <v>112103539</v>
       </c>
       <c r="B76" t="n">
         <v>96348</v>
@@ -9320,10 +9320,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>572414.0757496187</v>
+        <v>572444.8101381793</v>
       </c>
       <c r="R76" t="n">
-        <v>6635062.958343645</v>
+        <v>6635165.091275458</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964101</v>
+        <v>111964079</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,31 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572397.2533403626</v>
+        <v>572508.5941006967</v>
       </c>
       <c r="R2" t="n">
-        <v>6635305.903259245</v>
+        <v>6635199.007651598</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964115</v>
+        <v>111964068</v>
       </c>
       <c r="B3" t="n">
-        <v>8367</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,43 +809,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106554</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572413.4467321351</v>
+        <v>572624.3275140596</v>
       </c>
       <c r="R3" t="n">
-        <v>6634862.88732568</v>
+        <v>6635279.679472073</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,7 +909,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964097</v>
+        <v>111964098</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -959,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572392.0085447398</v>
+        <v>572398.8058685388</v>
       </c>
       <c r="R4" t="n">
-        <v>6635342.491595642</v>
+        <v>6635329.556315796</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1026,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964075</v>
+        <v>111964074</v>
       </c>
       <c r="B5" t="n">
         <v>56543</v>
@@ -1080,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572347.9538572846</v>
+        <v>572451.3179004347</v>
       </c>
       <c r="R5" t="n">
-        <v>6635252.167235874</v>
+        <v>6634883.230436426</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1152,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964067</v>
+        <v>111964104</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,38 +1159,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572522.2088334097</v>
+        <v>572636.8271442646</v>
       </c>
       <c r="R6" t="n">
-        <v>6635069.090440127</v>
+        <v>6635232.677581957</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964113</v>
+        <v>111964105</v>
       </c>
       <c r="B7" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,31 +1276,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572545.8177945263</v>
+        <v>572625.6289808374</v>
       </c>
       <c r="R7" t="n">
-        <v>6635097.699846692</v>
+        <v>6635264.626341943</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964061</v>
+        <v>111964106</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1393,38 +1393,43 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572376.3312293739</v>
+        <v>572621.5437408438</v>
       </c>
       <c r="R8" t="n">
-        <v>6635294.437731684</v>
+        <v>6635267.562138557</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1493,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964074</v>
+        <v>111964112</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,35 +1510,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1542,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572451.3179004347</v>
+        <v>572356.2636580318</v>
       </c>
       <c r="R9" t="n">
-        <v>6634883.230436426</v>
+        <v>6635058.312529455</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1614,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964068</v>
+        <v>111964109</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>83366</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,21 +1631,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>241</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1654,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572624.3275140596</v>
+        <v>572482.9349674499</v>
       </c>
       <c r="R10" t="n">
-        <v>6635279.679472073</v>
+        <v>6635017.555758155</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,7 +1727,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964105</v>
+        <v>111964103</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1771,10 +1772,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572625.6289808374</v>
+        <v>572486.3924484762</v>
       </c>
       <c r="R11" t="n">
-        <v>6635264.626341943</v>
+        <v>6635046.777041948</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1843,10 +1844,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964073</v>
+        <v>111964066</v>
       </c>
       <c r="B12" t="n">
-        <v>4711</v>
+        <v>89601</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,43 +1856,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100299</v>
+        <v>1106</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572543.9889093617</v>
+        <v>572543.9692712617</v>
       </c>
       <c r="R12" t="n">
-        <v>6635165.520267763</v>
+        <v>6635166.52515117</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1960,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964089</v>
+        <v>111964095</v>
       </c>
       <c r="B13" t="n">
-        <v>56404</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,35 +1968,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100048</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2009,13 +2001,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572574.3975851728</v>
+        <v>572522.4578243491</v>
       </c>
       <c r="R13" t="n">
-        <v>6635206.827772016</v>
+        <v>6635185.204844719</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2081,10 +2073,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964095</v>
+        <v>111964091</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>90123</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,39 +2089,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572522.4578243491</v>
+        <v>572482.6995120253</v>
       </c>
       <c r="R14" t="n">
-        <v>6635185.204844719</v>
+        <v>6635029.614818911</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2198,10 +2185,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964063</v>
+        <v>111964090</v>
       </c>
       <c r="B15" t="n">
-        <v>89369</v>
+        <v>90123</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,25 +2197,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1105</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2238,10 +2225,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572637.7864215365</v>
+        <v>572484.5950392252</v>
       </c>
       <c r="R15" t="n">
-        <v>6635260.843257532</v>
+        <v>6635035.683644415</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2310,10 +2297,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964109</v>
+        <v>111964101</v>
       </c>
       <c r="B16" t="n">
-        <v>83366</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,38 +2309,43 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>241</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572482.9349674499</v>
+        <v>572397.2533403626</v>
       </c>
       <c r="R16" t="n">
-        <v>6635017.555758155</v>
+        <v>6635305.903259245</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2422,10 +2414,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964066</v>
+        <v>111964100</v>
       </c>
       <c r="B17" t="n">
-        <v>89601</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,34 +2430,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1106</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572543.9692712617</v>
+        <v>572399.2664482036</v>
       </c>
       <c r="R17" t="n">
-        <v>6635166.52515117</v>
+        <v>6635305.942523698</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964102</v>
+        <v>111964097</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2579,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572412.0221011948</v>
+        <v>572392.0085447398</v>
       </c>
       <c r="R18" t="n">
-        <v>6634910.110561746</v>
+        <v>6635342.491595642</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2651,10 +2648,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964064</v>
+        <v>111964111</v>
       </c>
       <c r="B19" t="n">
-        <v>89601</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2663,38 +2660,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1106</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572398.4922834886</v>
+        <v>572531.2343797031</v>
       </c>
       <c r="R19" t="n">
-        <v>6635345.633705587</v>
+        <v>6635122.546929917</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2763,7 +2765,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964108</v>
+        <v>111964107</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2880,10 +2882,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964104</v>
+        <v>111964067</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2892,43 +2894,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572636.8271442646</v>
+        <v>572522.2088334097</v>
       </c>
       <c r="R21" t="n">
-        <v>6635232.677581957</v>
+        <v>6635069.090440127</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2997,10 +2994,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964100</v>
+        <v>111964114</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3009,31 +3006,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3042,10 +3039,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572399.2664482036</v>
+        <v>572629.537274144</v>
       </c>
       <c r="R22" t="n">
-        <v>6635305.942523698</v>
+        <v>6635270.734256107</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3114,10 +3111,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964062</v>
+        <v>111964088</v>
       </c>
       <c r="B23" t="n">
-        <v>89369</v>
+        <v>90689</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3126,25 +3123,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>5966</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3154,10 +3151,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572498.1579318554</v>
+        <v>572531.178093905</v>
       </c>
       <c r="R23" t="n">
-        <v>6635063.091541843</v>
+        <v>6635151.196164564</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3226,10 +3223,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964112</v>
+        <v>111964075</v>
       </c>
       <c r="B24" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3238,31 +3235,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3271,10 +3272,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572356.2636580318</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R24" t="n">
-        <v>6635058.312529455</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3343,10 +3344,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964088</v>
+        <v>111964102</v>
       </c>
       <c r="B25" t="n">
-        <v>90689</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3355,38 +3356,43 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572531.178093905</v>
+        <v>572412.0221011948</v>
       </c>
       <c r="R25" t="n">
-        <v>6635151.196164564</v>
+        <v>6634910.110561746</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3455,10 +3461,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964091</v>
+        <v>111964113</v>
       </c>
       <c r="B26" t="n">
-        <v>90123</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3467,38 +3473,43 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1105</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572482.6995120253</v>
+        <v>572545.8177945263</v>
       </c>
       <c r="R26" t="n">
-        <v>6635029.614818911</v>
+        <v>6635097.699846692</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3567,10 +3578,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964090</v>
+        <v>111964089</v>
       </c>
       <c r="B27" t="n">
-        <v>90123</v>
+        <v>56404</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3579,41 +3590,50 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1105</v>
+        <v>100048</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572484.5950392252</v>
+        <v>572574.3975851728</v>
       </c>
       <c r="R27" t="n">
-        <v>6635035.683644415</v>
+        <v>6635206.827772016</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3679,10 +3699,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964106</v>
+        <v>111964115</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3691,31 +3711,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3724,10 +3744,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572621.5437408438</v>
+        <v>572413.4467321351</v>
       </c>
       <c r="R28" t="n">
-        <v>6635267.562138557</v>
+        <v>6634862.88732568</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3796,7 +3816,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964103</v>
+        <v>111964099</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3841,10 +3861,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572486.3924484762</v>
+        <v>572397.1455479467</v>
       </c>
       <c r="R29" t="n">
-        <v>6635046.777041948</v>
+        <v>6635311.429904899</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3913,10 +3933,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964098</v>
+        <v>111964062</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3925,43 +3945,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572398.8058685388</v>
+        <v>572498.1579318554</v>
       </c>
       <c r="R30" t="n">
-        <v>6635329.556315796</v>
+        <v>6635063.091541843</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4030,10 +4045,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964114</v>
+        <v>111964096</v>
       </c>
       <c r="B31" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4042,31 +4057,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4075,10 +4090,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572629.537274144</v>
+        <v>572431.0643658402</v>
       </c>
       <c r="R31" t="n">
-        <v>6635270.734256107</v>
+        <v>6635250.269680216</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4147,10 +4162,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964080</v>
+        <v>111964063</v>
       </c>
       <c r="B32" t="n">
-        <v>56414</v>
+        <v>89369</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4159,43 +4174,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572551.8845251498</v>
+        <v>572637.7864215365</v>
       </c>
       <c r="R32" t="n">
-        <v>6635173.716707909</v>
+        <v>6635260.843257532</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4264,10 +4274,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964111</v>
+        <v>111964061</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>89369</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4280,39 +4290,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572531.2343797031</v>
+        <v>572376.3312293739</v>
       </c>
       <c r="R33" t="n">
-        <v>6635122.546929917</v>
+        <v>6635294.437731684</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4381,10 +4386,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964099</v>
+        <v>111964073</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>4711</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4393,31 +4398,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>100299</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4426,10 +4431,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572397.1455479467</v>
+        <v>572543.9889093617</v>
       </c>
       <c r="R34" t="n">
-        <v>6635311.429904899</v>
+        <v>6635165.520267763</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4498,7 +4503,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964079</v>
+        <v>111964080</v>
       </c>
       <c r="B35" t="n">
         <v>56414</v>
@@ -4543,10 +4548,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572508.5941006967</v>
+        <v>572551.8845251498</v>
       </c>
       <c r="R35" t="n">
-        <v>6635199.007651598</v>
+        <v>6635173.716707909</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4615,10 +4620,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964096</v>
+        <v>111964064</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>89601</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4631,39 +4636,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>1106</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572431.0643658402</v>
+        <v>572398.4922834886</v>
       </c>
       <c r="R36" t="n">
-        <v>6635250.269680216</v>
+        <v>6635345.633705587</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4732,10 +4732,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112103525</v>
+        <v>111964084</v>
       </c>
       <c r="B37" t="n">
-        <v>90678</v>
+        <v>89845</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4744,38 +4744,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4366</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572321.1689640785</v>
+        <v>572617.2972367437</v>
       </c>
       <c r="R37" t="n">
-        <v>6635050.591590347</v>
+        <v>6635227.269214762</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4802,7 +4805,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4812,7 +4815,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4826,6 +4829,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4844,7 +4848,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112103550</v>
+        <v>112103551</v>
       </c>
       <c r="B38" t="n">
         <v>96348</v>
@@ -4889,10 +4893,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572366.6854371058</v>
+        <v>572349.3776555649</v>
       </c>
       <c r="R38" t="n">
-        <v>6635195.233154469</v>
+        <v>6635204.948334173</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4961,10 +4965,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112103514</v>
+        <v>112103518</v>
       </c>
       <c r="B39" t="n">
-        <v>89369</v>
+        <v>56543</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4973,41 +4977,46 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>572346.9631606771</v>
+        <v>572391.9105156329</v>
       </c>
       <c r="R39" t="n">
-        <v>6635096.33223252</v>
+        <v>6635063.53132685</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5073,10 +5082,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112103547</v>
+        <v>112103513</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5085,43 +5094,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>572369.3609577138</v>
+        <v>572341.7597158444</v>
       </c>
       <c r="R40" t="n">
-        <v>6635135.472035047</v>
+        <v>6635079.140966787</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5190,10 +5194,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112103546</v>
+        <v>112103528</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>8377</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5202,31 +5206,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5235,10 +5239,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>572416.1767061361</v>
+        <v>572399.2401777974</v>
       </c>
       <c r="R41" t="n">
-        <v>6634981.06701599</v>
+        <v>6634971.688825586</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5307,10 +5311,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112103544</v>
+        <v>112103515</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5319,43 +5323,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>572422.677647528</v>
+        <v>572376.868833091</v>
       </c>
       <c r="R42" t="n">
-        <v>6635034.977827928</v>
+        <v>6635189.400146827</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5424,10 +5423,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112103534</v>
+        <v>112103517</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5436,43 +5435,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>572398.6385653759</v>
+        <v>572367.7229917983</v>
       </c>
       <c r="R43" t="n">
-        <v>6635260.694757356</v>
+        <v>6634935.385356643</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5541,10 +5535,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112103562</v>
+        <v>112103534</v>
       </c>
       <c r="B44" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5553,31 +5547,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5586,10 +5580,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>572377.3917188714</v>
+        <v>572398.6385653759</v>
       </c>
       <c r="R44" t="n">
-        <v>6635188.40508303</v>
+        <v>6635260.694757356</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5658,10 +5652,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112103553</v>
+        <v>112103514</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5670,43 +5664,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>572355.1565329297</v>
+        <v>572346.9631606771</v>
       </c>
       <c r="R45" t="n">
-        <v>6635244.265684937</v>
+        <v>6635096.33223252</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5775,7 +5764,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112103549</v>
+        <v>112103546</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5820,10 +5809,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>572372.940450243</v>
+        <v>572416.1767061361</v>
       </c>
       <c r="R46" t="n">
-        <v>6635184.297256649</v>
+        <v>6634981.06701599</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5892,10 +5881,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112103521</v>
+        <v>112103559</v>
       </c>
       <c r="B47" t="n">
-        <v>56414</v>
+        <v>12585</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5904,46 +5893,58 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100049</v>
+        <v>102217</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallbarksvartbagge</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Corticeus fraxini</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(Kugelann, 1794)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>572349.4994006816</v>
+        <v>572408.4371859068</v>
       </c>
       <c r="R47" t="n">
-        <v>6634966.195167584</v>
+        <v>6634964.830968197</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5991,8 +5992,14 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6009,10 +6016,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112103519</v>
+        <v>112103532</v>
       </c>
       <c r="B48" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6021,31 +6028,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6054,13 +6061,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>572345.551152845</v>
+        <v>572381.684763086</v>
       </c>
       <c r="R48" t="n">
-        <v>6634962.096946042</v>
+        <v>6635329.725023665</v>
       </c>
       <c r="S48" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6126,7 +6133,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112103555</v>
+        <v>112103538</v>
       </c>
       <c r="B49" t="n">
         <v>96348</v>
@@ -6171,10 +6178,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>572367.4877119045</v>
+        <v>572446.1891324359</v>
       </c>
       <c r="R49" t="n">
-        <v>6635283.207756522</v>
+        <v>6635223.423173347</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6243,10 +6250,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112103527</v>
+        <v>112103524</v>
       </c>
       <c r="B50" t="n">
-        <v>88948</v>
+        <v>90678</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6255,25 +6262,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5733</v>
+        <v>4366</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6283,10 +6290,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>572359.594763845</v>
+        <v>572330.8845039897</v>
       </c>
       <c r="R50" t="n">
-        <v>6635094.065222727</v>
+        <v>6635017.103323801</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6355,7 +6362,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112103543</v>
+        <v>112103533</v>
       </c>
       <c r="B51" t="n">
         <v>96348</v>
@@ -6400,10 +6407,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>572413.1671421975</v>
+        <v>572387.2073968524</v>
       </c>
       <c r="R51" t="n">
-        <v>6635057.914149365</v>
+        <v>6635304.702107777</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6472,10 +6479,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111964084</v>
+        <v>112103519</v>
       </c>
       <c r="B52" t="n">
-        <v>89845</v>
+        <v>56543</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6484,44 +6491,46 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>103021</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>572617.2972367437</v>
+        <v>572345.551152845</v>
       </c>
       <c r="R52" t="n">
-        <v>6635227.269214762</v>
+        <v>6634962.096946042</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6545,7 +6554,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6555,7 +6564,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6569,7 +6578,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6588,10 +6596,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112103563</v>
+        <v>112103529</v>
       </c>
       <c r="B53" t="n">
-        <v>90018</v>
+        <v>8377</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6604,34 +6612,39 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1339</v>
+        <v>106545</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>572361.8288169382</v>
+        <v>572285.7687057387</v>
       </c>
       <c r="R53" t="n">
-        <v>6635186.091152476</v>
+        <v>6634929.264707729</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6700,10 +6713,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112103526</v>
+        <v>112103516</v>
       </c>
       <c r="B54" t="n">
-        <v>90678</v>
+        <v>6202</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6716,34 +6729,51 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4366</v>
+        <v>105336</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>572343.7533627308</v>
+        <v>572356.8154726005</v>
       </c>
       <c r="R54" t="n">
-        <v>6635080.185106683</v>
+        <v>6635184.988167396</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6794,6 +6824,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6812,7 +6843,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112103551</v>
+        <v>112103550</v>
       </c>
       <c r="B55" t="n">
         <v>96348</v>
@@ -6857,10 +6888,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>572349.3776555649</v>
+        <v>572366.6854371058</v>
       </c>
       <c r="R55" t="n">
-        <v>6635204.948334173</v>
+        <v>6635195.233154469</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6929,7 +6960,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112103552</v>
+        <v>112103549</v>
       </c>
       <c r="B56" t="n">
         <v>96348</v>
@@ -6974,10 +7005,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>572358.9145870581</v>
+        <v>572372.940450243</v>
       </c>
       <c r="R56" t="n">
-        <v>6635232.275995146</v>
+        <v>6635184.297256649</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7046,10 +7077,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112103541</v>
+        <v>112103562</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7058,31 +7089,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7091,10 +7122,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>572420.8868327751</v>
+        <v>572377.3917188714</v>
       </c>
       <c r="R57" t="n">
-        <v>6635075.154714914</v>
+        <v>6635188.40508303</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7163,10 +7194,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112103513</v>
+        <v>112103555</v>
       </c>
       <c r="B58" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7175,38 +7206,43 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>572341.7597158444</v>
+        <v>572367.4877119045</v>
       </c>
       <c r="R58" t="n">
-        <v>6635079.140966787</v>
+        <v>6635283.207756522</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7275,10 +7311,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112103518</v>
+        <v>112103547</v>
       </c>
       <c r="B59" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7287,31 +7323,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7320,13 +7356,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>572391.9105156329</v>
+        <v>572369.3609577138</v>
       </c>
       <c r="R59" t="n">
-        <v>6635063.53132685</v>
+        <v>6635135.472035047</v>
       </c>
       <c r="S59" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7392,10 +7428,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112103528</v>
+        <v>112103512</v>
       </c>
       <c r="B60" t="n">
-        <v>8377</v>
+        <v>89369</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7408,39 +7444,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>106545</v>
+        <v>5447</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>572399.2401777974</v>
+        <v>572413.1671421975</v>
       </c>
       <c r="R60" t="n">
-        <v>6634971.688825586</v>
+        <v>6635057.914149365</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7509,10 +7540,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112103561</v>
+        <v>111964085</v>
       </c>
       <c r="B61" t="n">
-        <v>5113</v>
+        <v>89845</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7521,43 +7552,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100526</v>
+        <v>1209</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>572285.1631843462</v>
+        <v>572347.9538572846</v>
       </c>
       <c r="R61" t="n">
-        <v>6634908.643639773</v>
+        <v>6635252.167235874</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7584,7 +7613,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7594,7 +7623,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7608,6 +7637,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7626,10 +7656,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112103532</v>
+        <v>112103525</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>90678</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7638,43 +7668,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>572381.684763086</v>
+        <v>572321.1689640785</v>
       </c>
       <c r="R62" t="n">
-        <v>6635329.725023665</v>
+        <v>6635050.591590347</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7743,7 +7768,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112103548</v>
+        <v>112103543</v>
       </c>
       <c r="B63" t="n">
         <v>96348</v>
@@ -7788,10 +7813,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>572360.7400891574</v>
+        <v>572413.1671421975</v>
       </c>
       <c r="R63" t="n">
-        <v>6635164.45678684</v>
+        <v>6635057.914149365</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7860,10 +7885,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112103517</v>
+        <v>112103539</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7872,38 +7897,43 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>572367.7229917983</v>
+        <v>572444.8101381793</v>
       </c>
       <c r="R64" t="n">
-        <v>6634935.385356643</v>
+        <v>6635165.091275458</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7972,10 +8002,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112103511</v>
+        <v>112103536</v>
       </c>
       <c r="B65" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7984,38 +8014,43 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>572312.6870405492</v>
+        <v>572392.1021255963</v>
       </c>
       <c r="R65" t="n">
-        <v>6634839.810999912</v>
+        <v>6635234.430948168</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8084,10 +8119,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112103529</v>
+        <v>112103554</v>
       </c>
       <c r="B66" t="n">
-        <v>8377</v>
+        <v>96348</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8096,31 +8131,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8129,10 +8164,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>572285.7687057387</v>
+        <v>572357.1696740503</v>
       </c>
       <c r="R66" t="n">
-        <v>6634929.264707729</v>
+        <v>6635244.304926336</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8201,10 +8236,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112103523</v>
+        <v>112103541</v>
       </c>
       <c r="B67" t="n">
-        <v>90678</v>
+        <v>96348</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8213,38 +8248,43 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>572413.1671421975</v>
+        <v>572420.8868327751</v>
       </c>
       <c r="R67" t="n">
-        <v>6635057.914149365</v>
+        <v>6635075.154714914</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8313,10 +8353,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112103538</v>
+        <v>112103523</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>90678</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8325,43 +8365,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>572446.1891324359</v>
+        <v>572413.1671421975</v>
       </c>
       <c r="R68" t="n">
-        <v>6635223.423173347</v>
+        <v>6635057.914149365</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8430,10 +8465,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112103536</v>
+        <v>112103511</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8442,43 +8477,38 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>572392.1021255963</v>
+        <v>572312.6870405492</v>
       </c>
       <c r="R69" t="n">
-        <v>6635234.430948168</v>
+        <v>6634839.810999912</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8547,10 +8577,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112103516</v>
+        <v>112103553</v>
       </c>
       <c r="B70" t="n">
-        <v>6202</v>
+        <v>96348</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8559,55 +8589,43 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>105336</v>
+        <v>220787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>572356.8154726005</v>
+        <v>572355.1565329297</v>
       </c>
       <c r="R70" t="n">
-        <v>6635184.988167396</v>
+        <v>6635244.265684937</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8658,7 +8676,6 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8677,10 +8694,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112103559</v>
+        <v>112103540</v>
       </c>
       <c r="B71" t="n">
-        <v>12585</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8693,51 +8710,39 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>102217</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tallbarksvartbagge</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Corticeus fraxini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Kugelann, 1794)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>572408.4371859068</v>
+        <v>572422.7824349639</v>
       </c>
       <c r="R71" t="n">
-        <v>6634964.830968197</v>
+        <v>6635081.223432682</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8788,14 +8793,8 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ71" t="inlineStr">
-        <is>
-          <t>Erik Berg</t>
-        </is>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
@@ -8812,7 +8811,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112103540</v>
+        <v>112103548</v>
       </c>
       <c r="B72" t="n">
         <v>96348</v>
@@ -8857,10 +8856,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>572422.7824349639</v>
+        <v>572360.7400891574</v>
       </c>
       <c r="R72" t="n">
-        <v>6635081.223432682</v>
+        <v>6635164.45678684</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9163,10 +9162,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112103520</v>
+        <v>112103535</v>
       </c>
       <c r="B75" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9175,38 +9174,43 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>572409.3458258022</v>
+        <v>572399.9587191562</v>
       </c>
       <c r="R75" t="n">
-        <v>6634969.875286552</v>
+        <v>6635244.636633337</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9275,7 +9279,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112103539</v>
+        <v>112103544</v>
       </c>
       <c r="B76" t="n">
         <v>96348</v>
@@ -9320,10 +9324,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>572444.8101381793</v>
+        <v>572422.677647528</v>
       </c>
       <c r="R76" t="n">
-        <v>6635165.091275458</v>
+        <v>6635034.977827928</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9392,10 +9396,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111964085</v>
+        <v>112103537</v>
       </c>
       <c r="B77" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9408,37 +9412,39 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>572347.9538572846</v>
+        <v>572432.8291249418</v>
       </c>
       <c r="R77" t="n">
-        <v>6635252.167235874</v>
+        <v>6635237.23593298</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9465,7 +9471,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9475,7 +9481,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9489,7 +9495,6 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -9508,7 +9513,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112103535</v>
+        <v>112103552</v>
       </c>
       <c r="B78" t="n">
         <v>96348</v>
@@ -9553,10 +9558,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>572399.9587191562</v>
+        <v>572358.9145870581</v>
       </c>
       <c r="R78" t="n">
-        <v>6635244.636633337</v>
+        <v>6635232.275995146</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9625,10 +9630,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112103512</v>
+        <v>112103527</v>
       </c>
       <c r="B79" t="n">
-        <v>89369</v>
+        <v>88948</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9637,25 +9642,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5447</v>
+        <v>5733</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Vent.) Schild</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9665,10 +9670,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>572413.1671421975</v>
+        <v>572359.594763845</v>
       </c>
       <c r="R79" t="n">
-        <v>6635057.914149365</v>
+        <v>6635094.065222727</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9737,10 +9742,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112103533</v>
+        <v>112103561</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9749,31 +9754,31 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -9782,10 +9787,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>572387.2073968524</v>
+        <v>572285.1631843462</v>
       </c>
       <c r="R80" t="n">
-        <v>6635304.702107777</v>
+        <v>6634908.643639773</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9854,10 +9859,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112103515</v>
+        <v>112103563</v>
       </c>
       <c r="B81" t="n">
-        <v>89369</v>
+        <v>90018</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9870,21 +9875,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5447</v>
+        <v>1339</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9894,10 +9899,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>572376.868833091</v>
+        <v>572361.8288169382</v>
       </c>
       <c r="R81" t="n">
-        <v>6635189.400146827</v>
+        <v>6635186.091152476</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9966,10 +9971,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112103554</v>
+        <v>112103521</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9978,31 +9983,31 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -10011,13 +10016,13 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>572357.1696740503</v>
+        <v>572349.4994006816</v>
       </c>
       <c r="R82" t="n">
-        <v>6635244.304926336</v>
+        <v>6634966.195167584</v>
       </c>
       <c r="S82" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10083,10 +10088,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112103537</v>
+        <v>112103520</v>
       </c>
       <c r="B83" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10095,43 +10100,38 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>572432.8291249418</v>
+        <v>572409.3458258022</v>
       </c>
       <c r="R83" t="n">
-        <v>6635237.23593298</v>
+        <v>6634969.875286552</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112103524</v>
+        <v>112103526</v>
       </c>
       <c r="B84" t="n">
         <v>90678</v>
@@ -10240,10 +10240,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>572330.8845039897</v>
+        <v>572343.7533627308</v>
       </c>
       <c r="R84" t="n">
-        <v>6635017.103323801</v>
+        <v>6635080.185106683</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964079</v>
+        <v>111964068</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572508.5941006967</v>
+        <v>572624.3275140596</v>
       </c>
       <c r="R2" t="n">
-        <v>6635199.007651598</v>
+        <v>6635279.679472073</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964068</v>
+        <v>111964098</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +804,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572624.3275140596</v>
+        <v>572398.8058685388</v>
       </c>
       <c r="R3" t="n">
-        <v>6635279.679472073</v>
+        <v>6635329.556315796</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964098</v>
+        <v>111964079</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,31 +921,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572398.8058685388</v>
+        <v>572508.5941006967</v>
       </c>
       <c r="R4" t="n">
-        <v>6635329.556315796</v>
+        <v>6635199.007651598</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964068</v>
+        <v>111964064</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89601</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>1106</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572624.3275140596</v>
+        <v>572398</v>
       </c>
       <c r="R2" t="n">
-        <v>6635279.679472073</v>
+        <v>6635346</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964098</v>
+        <v>111964115</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,31 +794,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -837,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572398.8058685388</v>
+        <v>572413</v>
       </c>
       <c r="R3" t="n">
-        <v>6635329.556315796</v>
+        <v>6634863</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,19 +860,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +889,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964079</v>
+        <v>111964062</v>
       </c>
       <c r="B4" t="n">
-        <v>56414</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,43 +901,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572508.5941006967</v>
+        <v>572498</v>
       </c>
       <c r="R4" t="n">
-        <v>6635199.007651598</v>
+        <v>6635063</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -987,19 +962,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1026,10 +991,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964074</v>
+        <v>111964088</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>90689</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,43 +1007,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103021</v>
+        <v>5966</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572451.3179004347</v>
+        <v>572531</v>
       </c>
       <c r="R5" t="n">
-        <v>6634883.230436426</v>
+        <v>6635151</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1108,19 +1064,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1147,10 +1093,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964104</v>
+        <v>111964111</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,31 +1105,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1192,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572636.8271442646</v>
+        <v>572531</v>
       </c>
       <c r="R6" t="n">
-        <v>6635232.677581957</v>
+        <v>6635123</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,19 +1171,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1264,7 +1200,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964105</v>
+        <v>111964097</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1309,10 +1245,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572625.6289808374</v>
+        <v>572392</v>
       </c>
       <c r="R7" t="n">
-        <v>6635264.626341943</v>
+        <v>6635342</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1342,19 +1278,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1381,7 +1307,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964106</v>
+        <v>111964103</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1426,10 +1352,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572621.5437408438</v>
+        <v>572486</v>
       </c>
       <c r="R8" t="n">
-        <v>6635267.562138557</v>
+        <v>6635047</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,19 +1385,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1498,10 +1414,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964112</v>
+        <v>111964063</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,39 +1430,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572356.2636580318</v>
+        <v>572638</v>
       </c>
       <c r="R9" t="n">
-        <v>6635058.312529455</v>
+        <v>6635261</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,19 +1487,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1655,10 +1556,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572482.9349674499</v>
+        <v>572483</v>
       </c>
       <c r="R10" t="n">
-        <v>6635017.555758155</v>
+        <v>6635018</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,19 +1589,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1727,10 +1618,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964103</v>
+        <v>111964075</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1739,31 +1630,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1772,10 +1667,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572486.3924484762</v>
+        <v>572348</v>
       </c>
       <c r="R11" t="n">
-        <v>6635046.777041948</v>
+        <v>6635252</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,19 +1700,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1844,10 +1729,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964066</v>
+        <v>111964113</v>
       </c>
       <c r="B12" t="n">
-        <v>89601</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1856,38 +1741,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1106</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572543.9692712617</v>
+        <v>572546</v>
       </c>
       <c r="R12" t="n">
-        <v>6635166.52515117</v>
+        <v>6635098</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1917,19 +1807,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1956,7 +1836,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964095</v>
+        <v>111964104</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2001,10 +1881,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572522.4578243491</v>
+        <v>572637</v>
       </c>
       <c r="R13" t="n">
-        <v>6635185.204844719</v>
+        <v>6635233</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,19 +1914,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2073,10 +1943,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964091</v>
+        <v>111964107</v>
       </c>
       <c r="B14" t="n">
-        <v>90123</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2089,34 +1959,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572482.6995120253</v>
+        <v>572348</v>
       </c>
       <c r="R14" t="n">
-        <v>6635029.614818911</v>
+        <v>6635252</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2146,19 +2021,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2185,10 +2050,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964090</v>
+        <v>111964106</v>
       </c>
       <c r="B15" t="n">
-        <v>90123</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2201,34 +2066,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572484.5950392252</v>
+        <v>572622</v>
       </c>
       <c r="R15" t="n">
-        <v>6635035.683644415</v>
+        <v>6635268</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2258,19 +2128,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2297,7 +2157,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964101</v>
+        <v>111964099</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2342,10 +2202,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572397.2533403626</v>
+        <v>572397</v>
       </c>
       <c r="R16" t="n">
-        <v>6635305.903259245</v>
+        <v>6635311</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2375,19 +2235,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2414,10 +2264,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964100</v>
+        <v>111964066</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89601</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2430,39 +2280,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>1106</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572399.2664482036</v>
+        <v>572544</v>
       </c>
       <c r="R17" t="n">
-        <v>6635305.942523698</v>
+        <v>6635167</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2492,19 +2337,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2531,10 +2366,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964097</v>
+        <v>111964079</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2543,31 +2378,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2576,10 +2411,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572392.0085447398</v>
+        <v>572509</v>
       </c>
       <c r="R18" t="n">
-        <v>6635342.491595642</v>
+        <v>6635199</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2609,19 +2444,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2648,10 +2473,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964111</v>
+        <v>111964105</v>
       </c>
       <c r="B19" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2660,31 +2485,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2693,10 +2518,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572531.2343797031</v>
+        <v>572626</v>
       </c>
       <c r="R19" t="n">
-        <v>6635122.546929917</v>
+        <v>6635265</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2726,19 +2551,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2765,7 +2580,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964107</v>
+        <v>111964101</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2810,10 +2625,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572347.9538572846</v>
+        <v>572397</v>
       </c>
       <c r="R20" t="n">
-        <v>6635252.167235874</v>
+        <v>6635306</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2843,19 +2658,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2882,10 +2687,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964067</v>
+        <v>111964074</v>
       </c>
       <c r="B21" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2898,34 +2703,43 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572522.2088334097</v>
+        <v>572451</v>
       </c>
       <c r="R21" t="n">
-        <v>6635069.090440127</v>
+        <v>6634883</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2955,19 +2769,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2994,10 +2798,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964114</v>
+        <v>111964095</v>
       </c>
       <c r="B22" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3006,31 +2810,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3039,10 +2843,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572629.537274144</v>
+        <v>572522</v>
       </c>
       <c r="R22" t="n">
-        <v>6635270.734256107</v>
+        <v>6635185</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3072,19 +2876,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3111,10 +2905,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964088</v>
+        <v>111964091</v>
       </c>
       <c r="B23" t="n">
-        <v>90689</v>
+        <v>90123</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3123,25 +2917,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5966</v>
+        <v>1105</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3151,10 +2945,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572531.178093905</v>
+        <v>572483</v>
       </c>
       <c r="R23" t="n">
-        <v>6635151.196164564</v>
+        <v>6635030</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3184,19 +2978,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3223,10 +3007,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964075</v>
+        <v>111964098</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3235,35 +3019,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3272,10 +3052,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572347.9538572846</v>
+        <v>572399</v>
       </c>
       <c r="R24" t="n">
-        <v>6635252.167235874</v>
+        <v>6635330</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3305,19 +3085,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3344,7 +3114,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964102</v>
+        <v>111964096</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3389,10 +3159,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572412.0221011948</v>
+        <v>572431</v>
       </c>
       <c r="R25" t="n">
-        <v>6634910.110561746</v>
+        <v>6635250</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3422,19 +3192,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3461,10 +3221,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964113</v>
+        <v>111964080</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3473,31 +3233,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3506,10 +3266,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572545.8177945263</v>
+        <v>572552</v>
       </c>
       <c r="R26" t="n">
-        <v>6635097.699846692</v>
+        <v>6635174</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3539,19 +3299,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3578,10 +3328,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964089</v>
+        <v>111964112</v>
       </c>
       <c r="B27" t="n">
-        <v>56404</v>
+        <v>5113</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3590,35 +3340,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100048</v>
+        <v>100526</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3627,13 +3373,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572574.3975851728</v>
+        <v>572356</v>
       </c>
       <c r="R27" t="n">
-        <v>6635206.827772016</v>
+        <v>6635058</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3660,19 +3406,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3699,10 +3435,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964115</v>
+        <v>111964061</v>
       </c>
       <c r="B28" t="n">
-        <v>8367</v>
+        <v>89369</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3715,39 +3451,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>106554</v>
+        <v>5447</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572413.4467321351</v>
+        <v>572376</v>
       </c>
       <c r="R28" t="n">
-        <v>6634862.88732568</v>
+        <v>6635294</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3777,19 +3508,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3816,7 +3537,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964099</v>
+        <v>111964102</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3861,10 +3582,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572397.1455479467</v>
+        <v>572412</v>
       </c>
       <c r="R29" t="n">
-        <v>6635311.429904899</v>
+        <v>6634910</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3894,19 +3615,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3933,10 +3644,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964062</v>
+        <v>111964073</v>
       </c>
       <c r="B30" t="n">
-        <v>89369</v>
+        <v>4711</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3949,34 +3660,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>100299</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572498.1579318554</v>
+        <v>572544</v>
       </c>
       <c r="R30" t="n">
-        <v>6635063.091541843</v>
+        <v>6635166</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4006,19 +3722,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4045,10 +3751,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964096</v>
+        <v>111964090</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>90123</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4061,39 +3767,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572431.0643658402</v>
+        <v>572485</v>
       </c>
       <c r="R31" t="n">
-        <v>6635250.269680216</v>
+        <v>6635036</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4123,19 +3824,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4162,10 +3853,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964063</v>
+        <v>111964114</v>
       </c>
       <c r="B32" t="n">
-        <v>89369</v>
+        <v>5113</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4178,34 +3869,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572637.7864215365</v>
+        <v>572630</v>
       </c>
       <c r="R32" t="n">
-        <v>6635260.843257532</v>
+        <v>6635271</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4235,19 +3931,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4274,10 +3960,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964061</v>
+        <v>111964068</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4286,25 +3972,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4314,10 +4000,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572376.3312293739</v>
+        <v>572624</v>
       </c>
       <c r="R33" t="n">
-        <v>6635294.437731684</v>
+        <v>6635280</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4347,19 +4033,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4386,10 +4062,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964073</v>
+        <v>111964089</v>
       </c>
       <c r="B34" t="n">
-        <v>4711</v>
+        <v>56404</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4398,31 +4074,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100299</v>
+        <v>100048</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4431,13 +4111,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572543.9889093617</v>
+        <v>572574</v>
       </c>
       <c r="R34" t="n">
-        <v>6635165.520267763</v>
+        <v>6635207</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4464,19 +4144,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4503,10 +4173,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964080</v>
+        <v>111964067</v>
       </c>
       <c r="B35" t="n">
-        <v>56414</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4519,39 +4189,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572551.8845251498</v>
+        <v>572522</v>
       </c>
       <c r="R35" t="n">
-        <v>6635173.716707909</v>
+        <v>6635069</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4581,19 +4246,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4620,10 +4275,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964064</v>
+        <v>111964100</v>
       </c>
       <c r="B36" t="n">
-        <v>89601</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4636,34 +4291,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1106</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572398.4922834886</v>
+        <v>572399</v>
       </c>
       <c r="R36" t="n">
-        <v>6635345.633705587</v>
+        <v>6635306</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4693,19 +4353,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4732,7 +4382,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111964084</v>
+        <v>111964085</v>
       </c>
       <c r="B37" t="n">
         <v>89845</v>
@@ -4775,10 +4425,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572617.2972367437</v>
+        <v>572348</v>
       </c>
       <c r="R37" t="n">
-        <v>6635227.269214762</v>
+        <v>6635252</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4808,19 +4458,9 @@
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4848,10 +4488,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112103551</v>
+        <v>112103563</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>90018</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4860,43 +4500,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572349.3776555649</v>
+        <v>572362</v>
       </c>
       <c r="R38" t="n">
-        <v>6635204.948334173</v>
+        <v>6635186</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4926,19 +4561,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4965,10 +4590,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112103518</v>
+        <v>112103539</v>
       </c>
       <c r="B39" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4977,31 +4602,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5010,13 +4635,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>572391.9105156329</v>
+        <v>572445</v>
       </c>
       <c r="R39" t="n">
-        <v>6635063.53132685</v>
+        <v>6635165</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5043,19 +4668,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5082,10 +4697,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112103513</v>
+        <v>112103537</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5094,38 +4709,43 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>572341.7597158444</v>
+        <v>572433</v>
       </c>
       <c r="R40" t="n">
-        <v>6635079.140966787</v>
+        <v>6635237</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5155,19 +4775,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5194,10 +4804,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112103528</v>
+        <v>112103540</v>
       </c>
       <c r="B41" t="n">
-        <v>8377</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5206,31 +4816,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5239,10 +4849,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>572399.2401777974</v>
+        <v>572423</v>
       </c>
       <c r="R41" t="n">
-        <v>6634971.688825586</v>
+        <v>6635081</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5272,19 +4882,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5311,10 +4911,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112103515</v>
+        <v>112103534</v>
       </c>
       <c r="B42" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5323,38 +4923,43 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>572376.868833091</v>
+        <v>572399</v>
       </c>
       <c r="R42" t="n">
-        <v>6635189.400146827</v>
+        <v>6635261</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5384,19 +4989,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5423,10 +5018,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112103517</v>
+        <v>112103513</v>
       </c>
       <c r="B43" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5435,25 +5030,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5463,10 +5058,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>572367.7229917983</v>
+        <v>572342</v>
       </c>
       <c r="R43" t="n">
-        <v>6634935.385356643</v>
+        <v>6635079</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5496,19 +5091,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5535,7 +5120,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112103534</v>
+        <v>112103545</v>
       </c>
       <c r="B44" t="n">
         <v>96348</v>
@@ -5580,10 +5165,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>572398.6385653759</v>
+        <v>572405</v>
       </c>
       <c r="R44" t="n">
-        <v>6635260.694757356</v>
+        <v>6634976</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5613,19 +5198,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5652,10 +5227,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112103514</v>
+        <v>112103554</v>
       </c>
       <c r="B45" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5664,38 +5239,43 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>572346.9631606771</v>
+        <v>572357</v>
       </c>
       <c r="R45" t="n">
-        <v>6635096.33223252</v>
+        <v>6635244</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5725,19 +5305,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5764,7 +5334,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112103546</v>
+        <v>112103548</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5809,10 +5379,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>572416.1767061361</v>
+        <v>572361</v>
       </c>
       <c r="R46" t="n">
-        <v>6634981.06701599</v>
+        <v>6635164</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5842,19 +5412,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5881,10 +5441,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112103559</v>
+        <v>112103527</v>
       </c>
       <c r="B47" t="n">
-        <v>12585</v>
+        <v>88948</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5893,55 +5453,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>102217</v>
+        <v>5733</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tallbarksvartbagge</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Corticeus fraxini</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Kugelann, 1794)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>(Vent.) Schild</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>572408.4371859068</v>
+        <v>572360</v>
       </c>
       <c r="R47" t="n">
-        <v>6634964.830968197</v>
+        <v>6635094</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5971,35 +5514,19 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>Erik Berg</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
@@ -6016,10 +5543,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112103532</v>
+        <v>112103516</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>6202</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6028,43 +5555,55 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>105336</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>572381.684763086</v>
+        <v>572357</v>
       </c>
       <c r="R48" t="n">
-        <v>6635329.725023665</v>
+        <v>6635185</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6094,27 +5633,18 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6133,10 +5663,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112103538</v>
+        <v>112103521</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6145,31 +5675,31 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6178,13 +5708,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>572446.1891324359</v>
+        <v>572349</v>
       </c>
       <c r="R49" t="n">
-        <v>6635223.423173347</v>
+        <v>6634966</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6211,19 +5741,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6250,10 +5770,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112103524</v>
+        <v>112103552</v>
       </c>
       <c r="B50" t="n">
-        <v>90678</v>
+        <v>96348</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6262,38 +5782,43 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>572330.8845039897</v>
+        <v>572359</v>
       </c>
       <c r="R50" t="n">
-        <v>6635017.103323801</v>
+        <v>6635232</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6323,19 +5848,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6362,10 +5877,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112103533</v>
+        <v>112103517</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6374,43 +5889,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>572387.2073968524</v>
+        <v>572368</v>
       </c>
       <c r="R51" t="n">
-        <v>6635304.702107777</v>
+        <v>6634935</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6440,19 +5950,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6479,10 +5979,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112103519</v>
+        <v>112103535</v>
       </c>
       <c r="B52" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6491,31 +5991,31 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -6524,13 +6024,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>572345.551152845</v>
+        <v>572400</v>
       </c>
       <c r="R52" t="n">
-        <v>6634962.096946042</v>
+        <v>6635245</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6557,19 +6057,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6596,10 +6086,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112103529</v>
+        <v>112103533</v>
       </c>
       <c r="B53" t="n">
-        <v>8377</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6608,31 +6098,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6641,10 +6131,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>572285.7687057387</v>
+        <v>572387</v>
       </c>
       <c r="R53" t="n">
-        <v>6634929.264707729</v>
+        <v>6635305</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6674,19 +6164,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6713,10 +6193,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112103516</v>
+        <v>112103536</v>
       </c>
       <c r="B54" t="n">
-        <v>6202</v>
+        <v>96348</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6725,55 +6205,43 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>105336</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>572356.8154726005</v>
+        <v>572392</v>
       </c>
       <c r="R54" t="n">
-        <v>6635184.988167396</v>
+        <v>6635234</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6803,28 +6271,17 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6843,10 +6300,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112103550</v>
+        <v>112103561</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6855,31 +6312,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6888,10 +6345,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>572366.6854371058</v>
+        <v>572285</v>
       </c>
       <c r="R55" t="n">
-        <v>6635195.233154469</v>
+        <v>6634909</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6921,19 +6378,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6960,10 +6407,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112103549</v>
+        <v>112103523</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>90678</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6972,43 +6419,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>572372.940450243</v>
+        <v>572413</v>
       </c>
       <c r="R56" t="n">
-        <v>6635184.297256649</v>
+        <v>6635058</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7038,19 +6480,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7077,10 +6509,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112103562</v>
+        <v>112103551</v>
       </c>
       <c r="B57" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7089,31 +6521,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7122,10 +6554,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>572377.3917188714</v>
+        <v>572349</v>
       </c>
       <c r="R57" t="n">
-        <v>6635188.40508303</v>
+        <v>6635205</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7155,19 +6587,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7194,10 +6616,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112103555</v>
+        <v>112103518</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7206,31 +6628,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7239,13 +6661,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>572367.4877119045</v>
+        <v>572392</v>
       </c>
       <c r="R58" t="n">
-        <v>6635283.207756522</v>
+        <v>6635064</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7272,19 +6694,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7311,7 +6723,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112103547</v>
+        <v>112103549</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7356,10 +6768,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>572369.3609577138</v>
+        <v>572373</v>
       </c>
       <c r="R59" t="n">
-        <v>6635135.472035047</v>
+        <v>6635184</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7389,19 +6801,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7428,10 +6830,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112103512</v>
+        <v>112103547</v>
       </c>
       <c r="B60" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7440,38 +6842,43 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>572413.1671421975</v>
+        <v>572369</v>
       </c>
       <c r="R60" t="n">
-        <v>6635057.914149365</v>
+        <v>6635135</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7501,19 +6908,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7540,10 +6937,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111964085</v>
+        <v>112103559</v>
       </c>
       <c r="B61" t="n">
-        <v>89845</v>
+        <v>12585</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7556,37 +6953,51 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1209</v>
+        <v>102217</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tallbarksvartbagge</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Corticeus fraxini</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Kugelann, 1794)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>572347.9538572846</v>
+        <v>572408</v>
       </c>
       <c r="R61" t="n">
-        <v>6635252.167235874</v>
+        <v>6634965</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7613,22 +7024,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7640,6 +7041,11 @@
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -7656,10 +7062,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112103525</v>
+        <v>112103520</v>
       </c>
       <c r="B62" t="n">
-        <v>90678</v>
+        <v>89425</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7668,25 +7074,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4366</v>
+        <v>5442</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7696,10 +7102,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>572321.1689640785</v>
+        <v>572409</v>
       </c>
       <c r="R62" t="n">
-        <v>6635050.591590347</v>
+        <v>6634970</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7729,19 +7135,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7768,7 +7164,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112103543</v>
+        <v>112103538</v>
       </c>
       <c r="B63" t="n">
         <v>96348</v>
@@ -7813,10 +7209,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>572413.1671421975</v>
+        <v>572446</v>
       </c>
       <c r="R63" t="n">
-        <v>6635057.914149365</v>
+        <v>6635223</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7846,19 +7242,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7885,10 +7271,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112103539</v>
+        <v>112103524</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>90678</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7897,43 +7283,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>572444.8101381793</v>
+        <v>572331</v>
       </c>
       <c r="R64" t="n">
-        <v>6635165.091275458</v>
+        <v>6635017</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7963,19 +7344,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8002,10 +7373,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112103536</v>
+        <v>111964084</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8018,39 +7389,37 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>572392.1021255963</v>
+        <v>572617</v>
       </c>
       <c r="R65" t="n">
-        <v>6635234.430948168</v>
+        <v>6635227</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8077,22 +7446,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8101,6 +7460,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8119,10 +7479,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112103554</v>
+        <v>112103529</v>
       </c>
       <c r="B66" t="n">
-        <v>96348</v>
+        <v>8377</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8131,31 +7491,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8164,10 +7524,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>572357.1696740503</v>
+        <v>572286</v>
       </c>
       <c r="R66" t="n">
-        <v>6635244.304926336</v>
+        <v>6634929</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8197,19 +7557,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8236,10 +7586,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112103541</v>
+        <v>112103511</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8248,43 +7598,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>572420.8868327751</v>
+        <v>572313</v>
       </c>
       <c r="R67" t="n">
-        <v>6635075.154714914</v>
+        <v>6634840</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8314,19 +7659,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8353,10 +7688,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112103523</v>
+        <v>112103541</v>
       </c>
       <c r="B68" t="n">
-        <v>90678</v>
+        <v>96348</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8365,38 +7700,43 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>572413.1671421975</v>
+        <v>572421</v>
       </c>
       <c r="R68" t="n">
-        <v>6635057.914149365</v>
+        <v>6635075</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8426,19 +7766,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8465,10 +7795,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112103511</v>
+        <v>112103528</v>
       </c>
       <c r="B69" t="n">
-        <v>94134</v>
+        <v>8377</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8477,38 +7807,43 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>53</v>
+        <v>106545</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>572312.6870405492</v>
+        <v>572399</v>
       </c>
       <c r="R69" t="n">
-        <v>6634839.810999912</v>
+        <v>6634972</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8538,19 +7873,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8577,10 +7902,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112103553</v>
+        <v>112103525</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>90678</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8589,43 +7914,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>572355.1565329297</v>
+        <v>572321</v>
       </c>
       <c r="R70" t="n">
-        <v>6635244.265684937</v>
+        <v>6635051</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8655,19 +7975,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8694,10 +8004,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112103540</v>
+        <v>112103515</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8706,43 +8016,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>572422.7824349639</v>
+        <v>572377</v>
       </c>
       <c r="R71" t="n">
-        <v>6635081.223432682</v>
+        <v>6635189</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8772,19 +8077,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8811,7 +8106,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112103548</v>
+        <v>112103550</v>
       </c>
       <c r="B72" t="n">
         <v>96348</v>
@@ -8856,10 +8151,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>572360.7400891574</v>
+        <v>572367</v>
       </c>
       <c r="R72" t="n">
-        <v>6635164.45678684</v>
+        <v>6635195</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8889,19 +8184,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8928,10 +8213,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112103542</v>
+        <v>112103562</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8940,31 +8225,31 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -8973,10 +8258,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>572414.0757496187</v>
+        <v>572377</v>
       </c>
       <c r="R73" t="n">
-        <v>6635062.958343645</v>
+        <v>6635188</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9006,19 +8291,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9045,7 +8320,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112103545</v>
+        <v>112103542</v>
       </c>
       <c r="B74" t="n">
         <v>96348</v>
@@ -9090,10 +8365,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>572405.2016443094</v>
+        <v>572414</v>
       </c>
       <c r="R74" t="n">
-        <v>6634975.826361955</v>
+        <v>6635063</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9123,19 +8398,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA74" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9162,10 +8427,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112103535</v>
+        <v>112103526</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>90678</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9174,43 +8439,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>572399.9587191562</v>
+        <v>572344</v>
       </c>
       <c r="R75" t="n">
-        <v>6635244.636633337</v>
+        <v>6635080</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9240,19 +8500,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9279,10 +8529,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112103544</v>
+        <v>112103512</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9291,43 +8541,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>572422.677647528</v>
+        <v>572413</v>
       </c>
       <c r="R76" t="n">
-        <v>6635034.977827928</v>
+        <v>6635058</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9357,19 +8602,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9396,7 +8631,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112103537</v>
+        <v>112103553</v>
       </c>
       <c r="B77" t="n">
         <v>96348</v>
@@ -9441,10 +8676,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>572432.8291249418</v>
+        <v>572355</v>
       </c>
       <c r="R77" t="n">
-        <v>6635237.23593298</v>
+        <v>6635244</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9474,19 +8709,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9513,10 +8738,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112103552</v>
+        <v>112103519</v>
       </c>
       <c r="B78" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9525,31 +8750,31 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -9558,13 +8783,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>572358.9145870581</v>
+        <v>572346</v>
       </c>
       <c r="R78" t="n">
-        <v>6635232.275995146</v>
+        <v>6634962</v>
       </c>
       <c r="S78" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9591,19 +8816,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9630,10 +8845,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112103527</v>
+        <v>112103544</v>
       </c>
       <c r="B79" t="n">
-        <v>88948</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9642,38 +8857,43 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5733</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>572359.594763845</v>
+        <v>572423</v>
       </c>
       <c r="R79" t="n">
-        <v>6635094.065222727</v>
+        <v>6635035</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9703,19 +8923,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9742,10 +8952,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112103561</v>
+        <v>112103555</v>
       </c>
       <c r="B80" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9754,31 +8964,31 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -9787,10 +8997,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>572285.1631843462</v>
+        <v>572367</v>
       </c>
       <c r="R80" t="n">
-        <v>6634908.643639773</v>
+        <v>6635283</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9820,19 +9030,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9859,10 +9059,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112103563</v>
+        <v>112103514</v>
       </c>
       <c r="B81" t="n">
-        <v>90018</v>
+        <v>89369</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9875,21 +9075,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1339</v>
+        <v>5447</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9899,10 +9099,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>572361.8288169382</v>
+        <v>572347</v>
       </c>
       <c r="R81" t="n">
-        <v>6635186.091152476</v>
+        <v>6635096</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9932,19 +9132,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9971,10 +9161,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112103521</v>
+        <v>112103546</v>
       </c>
       <c r="B82" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9983,31 +9173,31 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -10016,13 +9206,13 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>572349.4994006816</v>
+        <v>572416</v>
       </c>
       <c r="R82" t="n">
-        <v>6634966.195167584</v>
+        <v>6634981</v>
       </c>
       <c r="S82" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10049,19 +9239,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10088,10 +9268,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112103520</v>
+        <v>112103532</v>
       </c>
       <c r="B83" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10100,38 +9280,43 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>572409.3458258022</v>
+        <v>572382</v>
       </c>
       <c r="R83" t="n">
-        <v>6634969.875286552</v>
+        <v>6635330</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10161,19 +9346,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10200,10 +9375,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112103526</v>
+        <v>112103543</v>
       </c>
       <c r="B84" t="n">
-        <v>90678</v>
+        <v>96348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10212,38 +9387,43 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>572343.7533627308</v>
+        <v>572413</v>
       </c>
       <c r="R84" t="n">
-        <v>6635080.185106683</v>
+        <v>6635058</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10273,19 +9453,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD84" t="b">

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY84"/>
+  <dimension ref="A1:AY129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964064</v>
+        <v>111964079</v>
       </c>
       <c r="B2" t="n">
-        <v>89601</v>
+        <v>56446</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1106</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572398</v>
+        <v>572509</v>
       </c>
       <c r="R2" t="n">
-        <v>6635346</v>
+        <v>6635199</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964115</v>
+        <v>111964102</v>
       </c>
       <c r="B3" t="n">
-        <v>8367</v>
+        <v>96720</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,31 +799,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -827,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572413</v>
+        <v>572412</v>
       </c>
       <c r="R3" t="n">
-        <v>6634863</v>
+        <v>6634910</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964062</v>
+        <v>111964108</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -901,38 +906,43 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572498</v>
+        <v>572348</v>
       </c>
       <c r="R4" t="n">
-        <v>6635063</v>
+        <v>6635252</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -991,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964088</v>
+        <v>111964063</v>
       </c>
       <c r="B5" t="n">
-        <v>90689</v>
+        <v>89503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1003,25 +1013,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1031,10 +1041,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572531</v>
+        <v>572638</v>
       </c>
       <c r="R5" t="n">
-        <v>6635151</v>
+        <v>6635261</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1093,10 +1103,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964111</v>
+        <v>111964067</v>
       </c>
       <c r="B6" t="n">
-        <v>5113</v>
+        <v>89539</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1105,43 +1115,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572531</v>
+        <v>572522</v>
       </c>
       <c r="R6" t="n">
-        <v>6635123</v>
+        <v>6635069</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1200,10 +1205,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964097</v>
+        <v>111964109</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>83492</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1212,43 +1217,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>241</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572392</v>
+        <v>572483</v>
       </c>
       <c r="R7" t="n">
-        <v>6635342</v>
+        <v>6635018</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964103</v>
+        <v>111964075</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>56575</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1319,31 +1319,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1352,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572486</v>
+        <v>572348</v>
       </c>
       <c r="R8" t="n">
-        <v>6635047</v>
+        <v>6635252</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1414,10 +1418,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964063</v>
+        <v>111964096</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1426,38 +1430,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572638</v>
+        <v>572431</v>
       </c>
       <c r="R9" t="n">
-        <v>6635261</v>
+        <v>6635250</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1516,10 +1525,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964109</v>
+        <v>111964062</v>
       </c>
       <c r="B10" t="n">
-        <v>83366</v>
+        <v>89503</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1528,25 +1537,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>241</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1556,10 +1565,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572483</v>
+        <v>572498</v>
       </c>
       <c r="R10" t="n">
-        <v>6635018</v>
+        <v>6635063</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1618,10 +1627,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964075</v>
+        <v>111964100</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>96720</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1630,35 +1639,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1667,10 +1672,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572348</v>
+        <v>572399</v>
       </c>
       <c r="R11" t="n">
-        <v>6635252</v>
+        <v>6635306</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1729,10 +1734,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964113</v>
+        <v>111964074</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>56575</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1741,31 +1746,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1774,10 +1783,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572546</v>
+        <v>572451</v>
       </c>
       <c r="R12" t="n">
-        <v>6635098</v>
+        <v>6634883</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1836,10 +1845,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964104</v>
+        <v>111964091</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>90257</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1852,39 +1861,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572637</v>
+        <v>572483</v>
       </c>
       <c r="R13" t="n">
-        <v>6635233</v>
+        <v>6635030</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1943,10 +1947,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964107</v>
+        <v>111964101</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1988,10 +1992,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572348</v>
+        <v>572397</v>
       </c>
       <c r="R14" t="n">
-        <v>6635252</v>
+        <v>6635306</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2050,10 +2054,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964106</v>
+        <v>111964104</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2095,10 +2099,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572622</v>
+        <v>572637</v>
       </c>
       <c r="R15" t="n">
-        <v>6635268</v>
+        <v>6635233</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2160,7 +2164,7 @@
         <v>111964099</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,10 +2268,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964066</v>
+        <v>111964073</v>
       </c>
       <c r="B17" t="n">
-        <v>89601</v>
+        <v>4711</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2276,28 +2280,33 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1106</v>
+        <v>100299</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
@@ -2307,7 +2316,7 @@
         <v>572544</v>
       </c>
       <c r="R17" t="n">
-        <v>6635167</v>
+        <v>6635166</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2366,10 +2375,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964079</v>
+        <v>111964095</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>96720</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2378,31 +2387,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2411,10 +2420,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572509</v>
+        <v>572522</v>
       </c>
       <c r="R18" t="n">
-        <v>6635199</v>
+        <v>6635185</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2473,10 +2482,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964105</v>
+        <v>111964088</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>90823</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2485,43 +2494,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572626</v>
+        <v>572531</v>
       </c>
       <c r="R19" t="n">
-        <v>6635265</v>
+        <v>6635151</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2580,10 +2584,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964101</v>
+        <v>111964089</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56436</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2592,31 +2596,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>100048</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2625,13 +2633,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572397</v>
+        <v>572574</v>
       </c>
       <c r="R20" t="n">
-        <v>6635306</v>
+        <v>6635207</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2687,10 +2695,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964074</v>
+        <v>111964112</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2699,35 +2707,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2736,10 +2740,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572451</v>
+        <v>572356</v>
       </c>
       <c r="R21" t="n">
-        <v>6634883</v>
+        <v>6635058</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,10 +2802,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964095</v>
+        <v>111964080</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>56446</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2810,31 +2814,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2843,10 +2847,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572522</v>
+        <v>572552</v>
       </c>
       <c r="R22" t="n">
-        <v>6635185</v>
+        <v>6635174</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2905,10 +2909,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964091</v>
+        <v>111964113</v>
       </c>
       <c r="B23" t="n">
-        <v>90123</v>
+        <v>5113</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2917,38 +2921,43 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1105</v>
+        <v>100526</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572483</v>
+        <v>572546</v>
       </c>
       <c r="R23" t="n">
-        <v>6635030</v>
+        <v>6635098</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3007,10 +3016,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964098</v>
+        <v>111964064</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3023,39 +3032,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1106</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572399</v>
+        <v>572398</v>
       </c>
       <c r="R24" t="n">
-        <v>6635330</v>
+        <v>6635346</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3114,10 +3118,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964096</v>
+        <v>111964111</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3126,31 +3130,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3159,10 +3163,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572431</v>
+        <v>572531</v>
       </c>
       <c r="R25" t="n">
-        <v>6635250</v>
+        <v>6635123</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3221,10 +3225,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964080</v>
+        <v>111964105</v>
       </c>
       <c r="B26" t="n">
-        <v>56414</v>
+        <v>96720</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3233,31 +3237,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3266,10 +3270,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572552</v>
+        <v>572626</v>
       </c>
       <c r="R26" t="n">
-        <v>6635174</v>
+        <v>6635265</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3328,10 +3332,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964112</v>
+        <v>111964103</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3340,31 +3344,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3373,10 +3377,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572356</v>
+        <v>572486</v>
       </c>
       <c r="R27" t="n">
-        <v>6635058</v>
+        <v>6635047</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3435,10 +3439,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964061</v>
+        <v>111964106</v>
       </c>
       <c r="B28" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3447,38 +3451,43 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572376</v>
+        <v>572622</v>
       </c>
       <c r="R28" t="n">
-        <v>6635294</v>
+        <v>6635268</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3537,10 +3546,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964102</v>
+        <v>111964097</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3582,10 +3591,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572412</v>
+        <v>572392</v>
       </c>
       <c r="R29" t="n">
-        <v>6634910</v>
+        <v>6635342</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3644,10 +3653,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964073</v>
+        <v>111964061</v>
       </c>
       <c r="B30" t="n">
-        <v>4711</v>
+        <v>89503</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3660,39 +3669,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100299</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572544</v>
+        <v>572376</v>
       </c>
       <c r="R30" t="n">
-        <v>6635166</v>
+        <v>6635294</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3751,10 +3755,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964090</v>
+        <v>111964066</v>
       </c>
       <c r="B31" t="n">
-        <v>90123</v>
+        <v>89735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3767,21 +3771,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3791,10 +3795,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572485</v>
+        <v>572544</v>
       </c>
       <c r="R31" t="n">
-        <v>6635036</v>
+        <v>6635167</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3853,10 +3857,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964114</v>
+        <v>111964115</v>
       </c>
       <c r="B32" t="n">
-        <v>5113</v>
+        <v>8367</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3869,27 +3873,27 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>106554</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3898,10 +3902,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572630</v>
+        <v>572413</v>
       </c>
       <c r="R32" t="n">
-        <v>6635271</v>
+        <v>6634863</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3960,10 +3964,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964068</v>
+        <v>111964114</v>
       </c>
       <c r="B33" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3972,38 +3976,43 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572624</v>
+        <v>572630</v>
       </c>
       <c r="R33" t="n">
-        <v>6635280</v>
+        <v>6635271</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4062,10 +4071,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964089</v>
+        <v>111964098</v>
       </c>
       <c r="B34" t="n">
-        <v>56404</v>
+        <v>96720</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4074,35 +4083,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100048</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4111,13 +4116,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572574</v>
+        <v>572399</v>
       </c>
       <c r="R34" t="n">
-        <v>6635207</v>
+        <v>6635330</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4173,10 +4178,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964067</v>
+        <v>111964068</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4213,10 +4218,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572522</v>
+        <v>572624</v>
       </c>
       <c r="R35" t="n">
-        <v>6635069</v>
+        <v>6635280</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4275,10 +4280,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964100</v>
+        <v>111964090</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>90257</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4291,39 +4296,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572399</v>
+        <v>572485</v>
       </c>
       <c r="R36" t="n">
-        <v>6635306</v>
+        <v>6635036</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111964085</v>
+        <v>112103519</v>
       </c>
       <c r="B37" t="n">
-        <v>89845</v>
+        <v>56575</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4394,44 +4394,46 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1209</v>
+        <v>103021</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572348</v>
+        <v>572346</v>
       </c>
       <c r="R37" t="n">
-        <v>6635252</v>
+        <v>6634962</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4455,12 +4457,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4469,7 +4471,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4488,10 +4489,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112103563</v>
+        <v>112103548</v>
       </c>
       <c r="B38" t="n">
-        <v>90018</v>
+        <v>96720</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4500,38 +4501,43 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572362</v>
+        <v>572361</v>
       </c>
       <c r="R38" t="n">
-        <v>6635186</v>
+        <v>6635164</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4590,10 +4596,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112103539</v>
+        <v>112103551</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4635,10 +4641,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>572445</v>
+        <v>572349</v>
       </c>
       <c r="R39" t="n">
-        <v>6635165</v>
+        <v>6635205</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4697,10 +4703,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112103537</v>
+        <v>112103520</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>89559</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4709,43 +4715,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>572433</v>
+        <v>572409</v>
       </c>
       <c r="R40" t="n">
-        <v>6635237</v>
+        <v>6634970</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4804,10 +4805,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112103540</v>
+        <v>112103512</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>89503</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4816,43 +4817,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>572423</v>
+        <v>572413</v>
       </c>
       <c r="R41" t="n">
-        <v>6635081</v>
+        <v>6635058</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4911,10 +4907,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112103534</v>
+        <v>112103518</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>56575</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4923,31 +4919,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4956,13 +4952,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>572399</v>
+        <v>572392</v>
       </c>
       <c r="R42" t="n">
-        <v>6635261</v>
+        <v>6635064</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5018,10 +5014,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112103513</v>
+        <v>112103553</v>
       </c>
       <c r="B43" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5030,38 +5026,43 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>572342</v>
+        <v>572355</v>
       </c>
       <c r="R43" t="n">
-        <v>6635079</v>
+        <v>6635244</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5120,10 +5121,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112103545</v>
+        <v>112103539</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5165,10 +5166,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>572405</v>
+        <v>572445</v>
       </c>
       <c r="R44" t="n">
-        <v>6634976</v>
+        <v>6635165</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5227,10 +5228,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112103554</v>
+        <v>112103523</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>90812</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5239,43 +5240,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>572357</v>
+        <v>572413</v>
       </c>
       <c r="R45" t="n">
-        <v>6635244</v>
+        <v>6635058</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5334,10 +5330,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112103548</v>
+        <v>112103561</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5346,31 +5342,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5379,10 +5375,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>572361</v>
+        <v>572285</v>
       </c>
       <c r="R46" t="n">
-        <v>6635164</v>
+        <v>6634909</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5441,10 +5437,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112103527</v>
+        <v>112103540</v>
       </c>
       <c r="B47" t="n">
-        <v>88948</v>
+        <v>96720</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5453,38 +5449,43 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5733</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>572360</v>
+        <v>572423</v>
       </c>
       <c r="R47" t="n">
-        <v>6635094</v>
+        <v>6635081</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5543,10 +5544,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112103516</v>
+        <v>112103529</v>
       </c>
       <c r="B48" t="n">
-        <v>6202</v>
+        <v>8377</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5559,51 +5560,39 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>105336</v>
+        <v>106545</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>572357</v>
+        <v>572286</v>
       </c>
       <c r="R48" t="n">
-        <v>6635185</v>
+        <v>6634929</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5644,7 +5633,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5663,10 +5651,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112103521</v>
+        <v>112103524</v>
       </c>
       <c r="B49" t="n">
-        <v>56414</v>
+        <v>90812</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5675,46 +5663,41 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>572349</v>
+        <v>572331</v>
       </c>
       <c r="R49" t="n">
-        <v>6634966</v>
+        <v>6635017</v>
       </c>
       <c r="S49" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5770,10 +5753,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112103552</v>
+        <v>112103538</v>
       </c>
       <c r="B50" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5815,10 +5798,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>572359</v>
+        <v>572446</v>
       </c>
       <c r="R50" t="n">
-        <v>6635232</v>
+        <v>6635223</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5877,10 +5860,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112103517</v>
+        <v>112103543</v>
       </c>
       <c r="B51" t="n">
-        <v>89405</v>
+        <v>96720</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5889,38 +5872,43 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>572368</v>
+        <v>572413</v>
       </c>
       <c r="R51" t="n">
-        <v>6634935</v>
+        <v>6635058</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5979,10 +5967,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112103535</v>
+        <v>112103541</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6024,10 +6012,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>572400</v>
+        <v>572421</v>
       </c>
       <c r="R52" t="n">
-        <v>6635245</v>
+        <v>6635075</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6086,10 +6074,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112103533</v>
+        <v>112103559</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>12585</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6102,39 +6090,51 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>102217</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallbarksvartbagge</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Corticeus fraxini</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>(Kugelann, 1794)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>572387</v>
+        <v>572408</v>
       </c>
       <c r="R53" t="n">
-        <v>6635305</v>
+        <v>6634965</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6175,8 +6175,14 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6193,10 +6199,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112103536</v>
+        <v>112103550</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6238,10 +6244,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>572392</v>
+        <v>572367</v>
       </c>
       <c r="R54" t="n">
-        <v>6635234</v>
+        <v>6635195</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6300,10 +6306,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112103561</v>
+        <v>112103515</v>
       </c>
       <c r="B55" t="n">
-        <v>5113</v>
+        <v>89503</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6316,39 +6322,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>572285</v>
+        <v>572377</v>
       </c>
       <c r="R55" t="n">
-        <v>6634909</v>
+        <v>6635189</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6407,10 +6408,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112103523</v>
+        <v>112103533</v>
       </c>
       <c r="B56" t="n">
-        <v>90678</v>
+        <v>96720</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6419,38 +6420,43 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>572413</v>
+        <v>572387</v>
       </c>
       <c r="R56" t="n">
-        <v>6635058</v>
+        <v>6635305</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6509,10 +6515,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112103551</v>
+        <v>112103516</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>6202</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6521,43 +6527,55 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>105336</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>572349</v>
+        <v>572357</v>
       </c>
       <c r="R57" t="n">
-        <v>6635205</v>
+        <v>6635185</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6598,6 +6616,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6616,10 +6635,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112103518</v>
+        <v>112103537</v>
       </c>
       <c r="B58" t="n">
-        <v>56543</v>
+        <v>96720</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6628,31 +6647,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -6661,13 +6680,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>572392</v>
+        <v>572433</v>
       </c>
       <c r="R58" t="n">
-        <v>6635064</v>
+        <v>6635237</v>
       </c>
       <c r="S58" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6726,7 +6745,7 @@
         <v>112103549</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6830,10 +6849,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112103547</v>
+        <v>112103534</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6875,10 +6894,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>572369</v>
+        <v>572399</v>
       </c>
       <c r="R60" t="n">
-        <v>6635135</v>
+        <v>6635261</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6937,10 +6956,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112103559</v>
+        <v>112103555</v>
       </c>
       <c r="B61" t="n">
-        <v>12585</v>
+        <v>96720</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6953,51 +6972,39 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>102217</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tallbarksvartbagge</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Corticeus fraxini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Kugelann, 1794)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>572408</v>
+        <v>572367</v>
       </c>
       <c r="R61" t="n">
-        <v>6634965</v>
+        <v>6635283</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7038,14 +7045,8 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ61" t="inlineStr">
-        <is>
-          <t>Erik Berg</t>
-        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -7062,10 +7063,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112103520</v>
+        <v>111964084</v>
       </c>
       <c r="B62" t="n">
-        <v>89425</v>
+        <v>89979</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7074,38 +7075,41 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5442</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>572409</v>
+        <v>572617</v>
       </c>
       <c r="R62" t="n">
-        <v>6634970</v>
+        <v>6635227</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7132,12 +7136,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7146,6 +7150,7 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7164,10 +7169,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112103538</v>
+        <v>112103526</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>90812</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7176,43 +7181,38 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>572446</v>
+        <v>572344</v>
       </c>
       <c r="R63" t="n">
-        <v>6635223</v>
+        <v>6635080</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7271,10 +7271,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112103524</v>
+        <v>112103563</v>
       </c>
       <c r="B64" t="n">
-        <v>90678</v>
+        <v>90152</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7287,21 +7287,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4366</v>
+        <v>1339</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7311,10 +7311,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>572331</v>
+        <v>572362</v>
       </c>
       <c r="R64" t="n">
-        <v>6635017</v>
+        <v>6635186</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7373,10 +7373,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111964084</v>
+        <v>112103546</v>
       </c>
       <c r="B65" t="n">
-        <v>89845</v>
+        <v>96720</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7389,37 +7389,39 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>572617</v>
+        <v>572416</v>
       </c>
       <c r="R65" t="n">
-        <v>6635227</v>
+        <v>6634981</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7446,12 +7448,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7460,7 +7462,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7479,10 +7480,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112103529</v>
+        <v>112103547</v>
       </c>
       <c r="B66" t="n">
-        <v>8377</v>
+        <v>96720</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7491,31 +7492,31 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -7524,10 +7525,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>572286</v>
+        <v>572369</v>
       </c>
       <c r="R66" t="n">
-        <v>6634929</v>
+        <v>6635135</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7586,10 +7587,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112103511</v>
+        <v>112103532</v>
       </c>
       <c r="B67" t="n">
-        <v>94134</v>
+        <v>96720</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7598,38 +7599,43 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>572313</v>
+        <v>572382</v>
       </c>
       <c r="R67" t="n">
-        <v>6634840</v>
+        <v>6635330</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7688,10 +7694,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112103541</v>
+        <v>111964085</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>89979</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7704,39 +7710,37 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>572421</v>
+        <v>572348</v>
       </c>
       <c r="R68" t="n">
-        <v>6635075</v>
+        <v>6635252</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7763,12 +7767,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7777,6 +7781,7 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -7795,10 +7800,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112103528</v>
+        <v>112103554</v>
       </c>
       <c r="B69" t="n">
-        <v>8377</v>
+        <v>96720</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7807,31 +7812,31 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7840,10 +7845,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>572399</v>
+        <v>572357</v>
       </c>
       <c r="R69" t="n">
-        <v>6634972</v>
+        <v>6635244</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7902,10 +7907,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112103525</v>
+        <v>112103536</v>
       </c>
       <c r="B70" t="n">
-        <v>90678</v>
+        <v>96720</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7914,38 +7919,43 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>572321</v>
+        <v>572392</v>
       </c>
       <c r="R70" t="n">
-        <v>6635051</v>
+        <v>6635234</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8004,10 +8014,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112103515</v>
+        <v>112103527</v>
       </c>
       <c r="B71" t="n">
-        <v>89369</v>
+        <v>89082</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8016,25 +8026,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5447</v>
+        <v>5733</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Vent.) Schild</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8044,10 +8054,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>572377</v>
+        <v>572360</v>
       </c>
       <c r="R71" t="n">
-        <v>6635189</v>
+        <v>6635094</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8106,10 +8116,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112103550</v>
+        <v>112103544</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8151,10 +8161,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>572367</v>
+        <v>572423</v>
       </c>
       <c r="R72" t="n">
-        <v>6635195</v>
+        <v>6635035</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8213,10 +8223,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112103562</v>
+        <v>112103552</v>
       </c>
       <c r="B73" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8225,31 +8235,31 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -8258,10 +8268,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>572377</v>
+        <v>572359</v>
       </c>
       <c r="R73" t="n">
-        <v>6635188</v>
+        <v>6635232</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8320,10 +8330,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112103542</v>
+        <v>112103562</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8332,31 +8342,31 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -8365,10 +8375,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>572414</v>
+        <v>572377</v>
       </c>
       <c r="R74" t="n">
-        <v>6635063</v>
+        <v>6635188</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8427,10 +8437,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112103526</v>
+        <v>112103521</v>
       </c>
       <c r="B75" t="n">
-        <v>90678</v>
+        <v>56446</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8439,41 +8449,46 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>572344</v>
+        <v>572349</v>
       </c>
       <c r="R75" t="n">
-        <v>6635080</v>
+        <v>6634966</v>
       </c>
       <c r="S75" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8529,10 +8544,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112103512</v>
+        <v>112103542</v>
       </c>
       <c r="B76" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8541,38 +8556,43 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>572413</v>
+        <v>572414</v>
       </c>
       <c r="R76" t="n">
-        <v>6635058</v>
+        <v>6635063</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8631,10 +8651,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112103553</v>
+        <v>112103514</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>89503</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8643,43 +8663,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>572355</v>
+        <v>572347</v>
       </c>
       <c r="R77" t="n">
-        <v>6635244</v>
+        <v>6635096</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8738,10 +8753,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112103519</v>
+        <v>112103525</v>
       </c>
       <c r="B78" t="n">
-        <v>56543</v>
+        <v>90812</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8750,46 +8765,41 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>103021</v>
+        <v>4366</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>572346</v>
+        <v>572321</v>
       </c>
       <c r="R78" t="n">
-        <v>6634962</v>
+        <v>6635051</v>
       </c>
       <c r="S78" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -8845,10 +8855,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112103544</v>
+        <v>112103511</v>
       </c>
       <c r="B79" t="n">
-        <v>96348</v>
+        <v>94287</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8857,43 +8867,38 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>572423</v>
+        <v>572313</v>
       </c>
       <c r="R79" t="n">
-        <v>6635035</v>
+        <v>6634840</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8952,10 +8957,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112103555</v>
+        <v>112103517</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8964,43 +8969,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>572367</v>
+        <v>572368</v>
       </c>
       <c r="R80" t="n">
-        <v>6635283</v>
+        <v>6634935</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9059,10 +9059,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112103514</v>
+        <v>112103545</v>
       </c>
       <c r="B81" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9071,38 +9071,43 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>572347</v>
+        <v>572405</v>
       </c>
       <c r="R81" t="n">
-        <v>6635096</v>
+        <v>6634976</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9161,10 +9166,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112103546</v>
+        <v>112103535</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9206,10 +9211,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>572416</v>
+        <v>572400</v>
       </c>
       <c r="R82" t="n">
-        <v>6634981</v>
+        <v>6635245</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9268,10 +9273,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112103532</v>
+        <v>112103528</v>
       </c>
       <c r="B83" t="n">
-        <v>96348</v>
+        <v>8377</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9280,31 +9285,31 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -9313,10 +9318,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>572382</v>
+        <v>572399</v>
       </c>
       <c r="R83" t="n">
-        <v>6635330</v>
+        <v>6634972</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9375,10 +9380,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112103543</v>
+        <v>112103513</v>
       </c>
       <c r="B84" t="n">
-        <v>96348</v>
+        <v>89503</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9387,43 +9392,38 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>572413</v>
+        <v>572342</v>
       </c>
       <c r="R84" t="n">
-        <v>6635058</v>
+        <v>6635079</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9479,6 +9479,4761 @@
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>112276694</v>
+      </c>
+      <c r="B85" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>572630</v>
+      </c>
+      <c r="R85" t="n">
+        <v>6635265</v>
+      </c>
+      <c r="S85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>112276701</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>572503</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6635041</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>112276700</v>
+      </c>
+      <c r="B87" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>572574</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6635038</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>112276709</v>
+      </c>
+      <c r="B88" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>572050</v>
+      </c>
+      <c r="R88" t="n">
+        <v>6635004</v>
+      </c>
+      <c r="S88" t="n">
+        <v>50</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>112276733</v>
+      </c>
+      <c r="B89" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>572074</v>
+      </c>
+      <c r="R89" t="n">
+        <v>6634976</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>112276696</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>572518</v>
+      </c>
+      <c r="R90" t="n">
+        <v>6635164</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>112276697</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>572498</v>
+      </c>
+      <c r="R91" t="n">
+        <v>6635101</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>112276716</v>
+      </c>
+      <c r="B92" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>572567</v>
+      </c>
+      <c r="R92" t="n">
+        <v>6635215</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>112276718</v>
+      </c>
+      <c r="B93" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>572500</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6635075</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>112276730</v>
+      </c>
+      <c r="B94" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>572283</v>
+      </c>
+      <c r="R94" t="n">
+        <v>6634886</v>
+      </c>
+      <c r="S94" t="n">
+        <v>10</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>112276721</v>
+      </c>
+      <c r="B95" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>572542</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6635025</v>
+      </c>
+      <c r="S95" t="n">
+        <v>10</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>112276742</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>572548</v>
+      </c>
+      <c r="R96" t="n">
+        <v>6635043</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>112276744</v>
+      </c>
+      <c r="B97" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>572566</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6635044</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>112276693</v>
+      </c>
+      <c r="B98" t="n">
+        <v>94287</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>53</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>572486</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6635116</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>112276740</v>
+      </c>
+      <c r="B99" t="n">
+        <v>89553</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>572638</v>
+      </c>
+      <c r="R99" t="n">
+        <v>6635268</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>112276736</v>
+      </c>
+      <c r="B100" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>572160</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6634905</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>112276692</v>
+      </c>
+      <c r="B101" t="n">
+        <v>94287</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>53</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>572569</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6635238</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>112276724</v>
+      </c>
+      <c r="B102" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>572552</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6635038</v>
+      </c>
+      <c r="S102" t="n">
+        <v>10</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>112276699</v>
+      </c>
+      <c r="B103" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>572504</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6635071</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>112276726</v>
+      </c>
+      <c r="B104" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>572547</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6635027</v>
+      </c>
+      <c r="S104" t="n">
+        <v>10</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>112276695</v>
+      </c>
+      <c r="B105" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>572563</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6635208</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>112276735</v>
+      </c>
+      <c r="B106" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>572075</v>
+      </c>
+      <c r="R106" t="n">
+        <v>6634976</v>
+      </c>
+      <c r="S106" t="n">
+        <v>10</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT106" t="inlineStr"/>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX106" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>112276719</v>
+      </c>
+      <c r="B107" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>572544</v>
+      </c>
+      <c r="R107" t="n">
+        <v>6635010</v>
+      </c>
+      <c r="S107" t="n">
+        <v>10</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX107" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>112276729</v>
+      </c>
+      <c r="B108" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>572454</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6634984</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT108" t="inlineStr"/>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX108" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>112276703</v>
+      </c>
+      <c r="B109" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>572632</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6635283</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT109" t="inlineStr"/>
+      <c r="AW109" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX109" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>112276743</v>
+      </c>
+      <c r="B110" t="n">
+        <v>90152</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1339</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Pycnoporellus fulgens</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>572657</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6635285</v>
+      </c>
+      <c r="S110" t="n">
+        <v>10</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT110" t="inlineStr"/>
+      <c r="AW110" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX110" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>112276715</v>
+      </c>
+      <c r="B111" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>572622</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6635271</v>
+      </c>
+      <c r="S111" t="n">
+        <v>10</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX111" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112276723</v>
+      </c>
+      <c r="B112" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>572547</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6635060</v>
+      </c>
+      <c r="S112" t="n">
+        <v>10</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX112" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112276739</v>
+      </c>
+      <c r="B113" t="n">
+        <v>83492</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>241</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Gransotdyna</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Camarops tubulina</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>572573</v>
+      </c>
+      <c r="R113" t="n">
+        <v>6635037</v>
+      </c>
+      <c r="S113" t="n">
+        <v>10</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT113" t="inlineStr"/>
+      <c r="AW113" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX113" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112276713</v>
+      </c>
+      <c r="B114" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>572390</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6635003</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT114" t="inlineStr"/>
+      <c r="AW114" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX114" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>112276727</v>
+      </c>
+      <c r="B115" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>572480</v>
+      </c>
+      <c r="R115" t="n">
+        <v>6634984</v>
+      </c>
+      <c r="S115" t="n">
+        <v>10</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT115" t="inlineStr"/>
+      <c r="AW115" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX115" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>112276725</v>
+      </c>
+      <c r="B116" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>572557</v>
+      </c>
+      <c r="R116" t="n">
+        <v>6635036</v>
+      </c>
+      <c r="S116" t="n">
+        <v>10</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W116" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT116" t="inlineStr"/>
+      <c r="AW116" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX116" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>112276704</v>
+      </c>
+      <c r="B117" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>572516</v>
+      </c>
+      <c r="R117" t="n">
+        <v>6635002</v>
+      </c>
+      <c r="S117" t="n">
+        <v>10</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT117" t="inlineStr"/>
+      <c r="AW117" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX117" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>112276705</v>
+      </c>
+      <c r="B118" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>572488</v>
+      </c>
+      <c r="R118" t="n">
+        <v>6634985</v>
+      </c>
+      <c r="S118" t="n">
+        <v>10</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT118" t="inlineStr"/>
+      <c r="AW118" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX118" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>112276717</v>
+      </c>
+      <c r="B119" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>572478</v>
+      </c>
+      <c r="R119" t="n">
+        <v>6635227</v>
+      </c>
+      <c r="S119" t="n">
+        <v>10</v>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W119" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT119" t="inlineStr"/>
+      <c r="AW119" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX119" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>112276722</v>
+      </c>
+      <c r="B120" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>572533</v>
+      </c>
+      <c r="R120" t="n">
+        <v>6635048</v>
+      </c>
+      <c r="S120" t="n">
+        <v>10</v>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT120" t="inlineStr"/>
+      <c r="AW120" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX120" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>112276728</v>
+      </c>
+      <c r="B121" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>572463</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6635001</v>
+      </c>
+      <c r="S121" t="n">
+        <v>10</v>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT121" t="inlineStr"/>
+      <c r="AW121" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX121" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>112276731</v>
+      </c>
+      <c r="B122" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>572050</v>
+      </c>
+      <c r="R122" t="n">
+        <v>6635004</v>
+      </c>
+      <c r="S122" t="n">
+        <v>10</v>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT122" t="inlineStr"/>
+      <c r="AW122" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX122" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>112276714</v>
+      </c>
+      <c r="B123" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>572638</v>
+      </c>
+      <c r="R123" t="n">
+        <v>6635268</v>
+      </c>
+      <c r="S123" t="n">
+        <v>10</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT123" t="inlineStr"/>
+      <c r="AW123" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX123" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>112276698</v>
+      </c>
+      <c r="B124" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>572488</v>
+      </c>
+      <c r="R124" t="n">
+        <v>6635118</v>
+      </c>
+      <c r="S124" t="n">
+        <v>10</v>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y124" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT124" t="inlineStr"/>
+      <c r="AW124" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX124" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>112276732</v>
+      </c>
+      <c r="B125" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>572059</v>
+      </c>
+      <c r="R125" t="n">
+        <v>6634995</v>
+      </c>
+      <c r="S125" t="n">
+        <v>10</v>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W125" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y125" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT125" t="inlineStr"/>
+      <c r="AW125" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX125" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>112276702</v>
+      </c>
+      <c r="B126" t="n">
+        <v>89879</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>572516</v>
+      </c>
+      <c r="R126" t="n">
+        <v>6635001</v>
+      </c>
+      <c r="S126" t="n">
+        <v>10</v>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y126" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT126" t="inlineStr"/>
+      <c r="AW126" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX126" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>112276737</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6206</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>102351</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Thymalus limbatus</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>(Fabricius, 1787)</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>572494</v>
+      </c>
+      <c r="R127" t="n">
+        <v>6635209</v>
+      </c>
+      <c r="S127" t="n">
+        <v>10</v>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y127" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA127" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ127" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AT127" t="inlineStr"/>
+      <c r="AW127" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX127" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>112276712</v>
+      </c>
+      <c r="B128" t="n">
+        <v>57620</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>208242</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Mindre vattensalamander</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Lissotriton vulgaris</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>på övervintringsplats</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>572510</v>
+      </c>
+      <c r="R128" t="n">
+        <v>6634978</v>
+      </c>
+      <c r="S128" t="n">
+        <v>10</v>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W128" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y128" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT128" t="inlineStr"/>
+      <c r="AW128" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX128" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>112276707</v>
+      </c>
+      <c r="B129" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>Sala Norrby 1:3, Vstm</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>572508</v>
+      </c>
+      <c r="R129" t="n">
+        <v>6634978</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W129" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y129" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA129" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT129" t="inlineStr"/>
+      <c r="AW129" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX129" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -7694,10 +7694,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111964085</v>
+        <v>112103536</v>
       </c>
       <c r="B68" t="n">
-        <v>89979</v>
+        <v>96720</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7710,37 +7710,39 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>572348</v>
+        <v>572392</v>
       </c>
       <c r="R68" t="n">
-        <v>6635252</v>
+        <v>6635234</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7767,12 +7769,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7781,7 +7783,6 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -7800,10 +7801,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112103554</v>
+        <v>111964085</v>
       </c>
       <c r="B69" t="n">
-        <v>96720</v>
+        <v>89979</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7816,39 +7817,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>572357</v>
+        <v>572348</v>
       </c>
       <c r="R69" t="n">
-        <v>6635244</v>
+        <v>6635252</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7875,12 +7874,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7889,6 +7888,7 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -7907,7 +7907,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112103536</v>
+        <v>112103554</v>
       </c>
       <c r="B70" t="n">
         <v>96720</v>
@@ -7952,10 +7952,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>572392</v>
+        <v>572357</v>
       </c>
       <c r="R70" t="n">
-        <v>6635234</v>
+        <v>6635244</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -12111,10 +12111,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112276743</v>
+        <v>112276715</v>
       </c>
       <c r="B110" t="n">
-        <v>90152</v>
+        <v>96720</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12123,38 +12123,43 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P110" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>572657</v>
+        <v>572622</v>
       </c>
       <c r="R110" t="n">
-        <v>6635285</v>
+        <v>6635271</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12213,7 +12218,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112276715</v>
+        <v>112276723</v>
       </c>
       <c r="B111" t="n">
         <v>96720</v>
@@ -12258,10 +12263,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>572622</v>
+        <v>572547</v>
       </c>
       <c r="R111" t="n">
-        <v>6635271</v>
+        <v>6635060</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12320,10 +12325,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112276723</v>
+        <v>112276743</v>
       </c>
       <c r="B112" t="n">
-        <v>96720</v>
+        <v>90152</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12332,43 +12337,38 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>220787</v>
+        <v>1339</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>572547</v>
+        <v>572657</v>
       </c>
       <c r="R112" t="n">
-        <v>6635060</v>
+        <v>6635285</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111964079</v>
+        <v>111964061</v>
       </c>
       <c r="B2" t="n">
-        <v>56446</v>
+        <v>89517</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>572509</v>
+        <v>572376</v>
       </c>
       <c r="R2" t="n">
-        <v>6635199</v>
+        <v>6635294</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -787,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111964102</v>
+        <v>111964075</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -799,31 +794,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -832,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>572412</v>
+        <v>572348</v>
       </c>
       <c r="R3" t="n">
-        <v>6634910</v>
+        <v>6635252</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111964108</v>
+        <v>111964090</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>90271</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -910,39 +909,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1105</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572348</v>
+        <v>572485</v>
       </c>
       <c r="R4" t="n">
-        <v>6635252</v>
+        <v>6635036</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1001,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111964063</v>
+        <v>111964113</v>
       </c>
       <c r="B5" t="n">
-        <v>89503</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1017,34 +1011,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572638</v>
+        <v>572546</v>
       </c>
       <c r="R5" t="n">
-        <v>6635261</v>
+        <v>6635098</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1103,10 +1102,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111964067</v>
+        <v>111964098</v>
       </c>
       <c r="B6" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1115,38 +1114,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572522</v>
+        <v>572399</v>
       </c>
       <c r="R6" t="n">
-        <v>6635069</v>
+        <v>6635330</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,10 +1209,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111964109</v>
+        <v>111964064</v>
       </c>
       <c r="B7" t="n">
-        <v>83492</v>
+        <v>89749</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1217,25 +1221,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>241</v>
+        <v>1106</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1245,10 +1249,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>572483</v>
+        <v>572398</v>
       </c>
       <c r="R7" t="n">
-        <v>6635018</v>
+        <v>6635346</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1307,10 +1311,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111964075</v>
+        <v>111964068</v>
       </c>
       <c r="B8" t="n">
-        <v>56575</v>
+        <v>89553</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1323,43 +1327,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>572348</v>
+        <v>572624</v>
       </c>
       <c r="R8" t="n">
-        <v>6635252</v>
+        <v>6635280</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1418,10 +1413,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111964096</v>
+        <v>111964088</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>90837</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1430,43 +1425,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>5966</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>572431</v>
+        <v>572531</v>
       </c>
       <c r="R9" t="n">
-        <v>6635250</v>
+        <v>6635151</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1525,10 +1515,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964062</v>
+        <v>111964109</v>
       </c>
       <c r="B10" t="n">
-        <v>89503</v>
+        <v>83506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1537,25 +1527,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>241</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1565,10 +1555,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>572498</v>
+        <v>572483</v>
       </c>
       <c r="R10" t="n">
-        <v>6635063</v>
+        <v>6635018</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1627,10 +1617,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964100</v>
+        <v>111964114</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1639,31 +1629,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1672,10 +1662,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>572399</v>
+        <v>572630</v>
       </c>
       <c r="R11" t="n">
-        <v>6635306</v>
+        <v>6635271</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1734,10 +1724,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964074</v>
+        <v>111964099</v>
       </c>
       <c r="B12" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1746,35 +1736,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1783,10 +1769,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>572451</v>
+        <v>572397</v>
       </c>
       <c r="R12" t="n">
-        <v>6634883</v>
+        <v>6635311</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1845,10 +1831,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111964091</v>
+        <v>111964097</v>
       </c>
       <c r="B13" t="n">
-        <v>90257</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1861,34 +1847,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>572483</v>
+        <v>572392</v>
       </c>
       <c r="R13" t="n">
-        <v>6635030</v>
+        <v>6635342</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1947,10 +1938,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111964101</v>
+        <v>111964111</v>
       </c>
       <c r="B14" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1959,31 +1950,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1992,10 +1983,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>572397</v>
+        <v>572531</v>
       </c>
       <c r="R14" t="n">
-        <v>6635306</v>
+        <v>6635123</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2054,10 +2045,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111964104</v>
+        <v>111964106</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2099,10 +2090,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>572637</v>
+        <v>572622</v>
       </c>
       <c r="R15" t="n">
-        <v>6635233</v>
+        <v>6635268</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2161,10 +2152,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111964099</v>
+        <v>111964104</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2206,10 +2197,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>572397</v>
+        <v>572637</v>
       </c>
       <c r="R16" t="n">
-        <v>6635311</v>
+        <v>6635233</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2268,10 +2259,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111964073</v>
+        <v>111964074</v>
       </c>
       <c r="B17" t="n">
-        <v>4711</v>
+        <v>56575</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2280,31 +2271,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100299</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2313,10 +2308,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>572544</v>
+        <v>572451</v>
       </c>
       <c r="R17" t="n">
-        <v>6635166</v>
+        <v>6634883</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2375,10 +2370,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111964095</v>
+        <v>111964101</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2420,10 +2415,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>572522</v>
+        <v>572397</v>
       </c>
       <c r="R18" t="n">
-        <v>6635185</v>
+        <v>6635306</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,10 +2477,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111964088</v>
+        <v>111964112</v>
       </c>
       <c r="B19" t="n">
-        <v>90823</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2494,38 +2489,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>572531</v>
+        <v>572356</v>
       </c>
       <c r="R19" t="n">
-        <v>6635151</v>
+        <v>6635058</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964089</v>
+        <v>111964103</v>
       </c>
       <c r="B20" t="n">
-        <v>56436</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2596,35 +2596,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100048</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryobates minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2633,13 +2629,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572574</v>
+        <v>572486</v>
       </c>
       <c r="R20" t="n">
-        <v>6635207</v>
+        <v>6635047</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2695,10 +2691,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964112</v>
+        <v>111964095</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2707,31 +2703,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2740,10 +2736,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572356</v>
+        <v>572522</v>
       </c>
       <c r="R21" t="n">
-        <v>6635058</v>
+        <v>6635185</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2802,10 +2798,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964080</v>
+        <v>111964105</v>
       </c>
       <c r="B22" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2814,31 +2810,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2847,10 +2843,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572552</v>
+        <v>572626</v>
       </c>
       <c r="R22" t="n">
-        <v>6635174</v>
+        <v>6635265</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2909,10 +2905,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111964113</v>
+        <v>111964073</v>
       </c>
       <c r="B23" t="n">
-        <v>5113</v>
+        <v>4711</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2925,21 +2921,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100526</v>
+        <v>100299</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2954,10 +2950,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>572546</v>
+        <v>572544</v>
       </c>
       <c r="R23" t="n">
-        <v>6635098</v>
+        <v>6635166</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3016,10 +3012,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111964064</v>
+        <v>111964066</v>
       </c>
       <c r="B24" t="n">
-        <v>89735</v>
+        <v>89749</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3056,10 +3052,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>572398</v>
+        <v>572544</v>
       </c>
       <c r="R24" t="n">
-        <v>6635346</v>
+        <v>6635167</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3118,10 +3114,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111964111</v>
+        <v>111964089</v>
       </c>
       <c r="B25" t="n">
-        <v>5113</v>
+        <v>56436</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3130,31 +3126,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100526</v>
+        <v>100048</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryobates minor</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3163,13 +3163,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>572531</v>
+        <v>572574</v>
       </c>
       <c r="R25" t="n">
-        <v>6635123</v>
+        <v>6635207</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111964105</v>
+        <v>111964067</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3237,43 +3237,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>572626</v>
+        <v>572522</v>
       </c>
       <c r="R26" t="n">
-        <v>6635265</v>
+        <v>6635069</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3332,10 +3327,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111964103</v>
+        <v>111964115</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>8367</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3344,31 +3339,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3377,10 +3372,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>572486</v>
+        <v>572413</v>
       </c>
       <c r="R27" t="n">
-        <v>6635047</v>
+        <v>6634863</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3439,10 +3434,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111964106</v>
+        <v>111964080</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3451,31 +3446,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3484,10 +3479,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>572622</v>
+        <v>572552</v>
       </c>
       <c r="R28" t="n">
-        <v>6635268</v>
+        <v>6635174</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3546,10 +3541,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111964097</v>
+        <v>111964079</v>
       </c>
       <c r="B29" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3558,31 +3553,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3591,10 +3586,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>572392</v>
+        <v>572509</v>
       </c>
       <c r="R29" t="n">
-        <v>6635342</v>
+        <v>6635199</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3653,10 +3648,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111964061</v>
+        <v>111964091</v>
       </c>
       <c r="B30" t="n">
-        <v>89503</v>
+        <v>90271</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3665,25 +3660,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>1105</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Laxporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodonia placenta</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3693,10 +3688,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>572376</v>
+        <v>572483</v>
       </c>
       <c r="R30" t="n">
-        <v>6635294</v>
+        <v>6635030</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3755,10 +3750,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111964066</v>
+        <v>111964062</v>
       </c>
       <c r="B31" t="n">
-        <v>89735</v>
+        <v>89517</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3767,25 +3762,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1106</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3795,10 +3790,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>572544</v>
+        <v>572498</v>
       </c>
       <c r="R31" t="n">
-        <v>6635167</v>
+        <v>6635063</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3857,10 +3852,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111964115</v>
+        <v>111964063</v>
       </c>
       <c r="B32" t="n">
-        <v>8367</v>
+        <v>89517</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3873,39 +3868,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106554</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>572413</v>
+        <v>572638</v>
       </c>
       <c r="R32" t="n">
-        <v>6634863</v>
+        <v>6635261</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3964,10 +3954,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111964114</v>
+        <v>111964102</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3976,31 +3966,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4009,10 +3999,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>572630</v>
+        <v>572412</v>
       </c>
       <c r="R33" t="n">
-        <v>6635271</v>
+        <v>6634910</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4071,10 +4061,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111964098</v>
+        <v>111964096</v>
       </c>
       <c r="B34" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4116,10 +4106,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>572399</v>
+        <v>572431</v>
       </c>
       <c r="R34" t="n">
-        <v>6635330</v>
+        <v>6635250</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4178,10 +4168,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111964068</v>
+        <v>111964108</v>
       </c>
       <c r="B35" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4190,38 +4180,43 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>572624</v>
+        <v>572348</v>
       </c>
       <c r="R35" t="n">
-        <v>6635280</v>
+        <v>6635252</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4280,10 +4275,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111964090</v>
+        <v>111964100</v>
       </c>
       <c r="B36" t="n">
-        <v>90257</v>
+        <v>96735</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4296,34 +4291,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1105</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Laxporing</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodonia placenta</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Niemelä, K.H.Larss. &amp; Schigel</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>572485</v>
+        <v>572399</v>
       </c>
       <c r="R36" t="n">
-        <v>6635036</v>
+        <v>6635306</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112103519</v>
+        <v>112103535</v>
       </c>
       <c r="B37" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4394,31 +4394,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572346</v>
+        <v>572400</v>
       </c>
       <c r="R37" t="n">
-        <v>6634962</v>
+        <v>6635245</v>
       </c>
       <c r="S37" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112103548</v>
+        <v>112103533</v>
       </c>
       <c r="B38" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572361</v>
+        <v>572387</v>
       </c>
       <c r="R38" t="n">
-        <v>6635164</v>
+        <v>6635305</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4596,10 +4596,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112103551</v>
+        <v>112103543</v>
       </c>
       <c r="B39" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4641,10 +4641,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>572349</v>
+        <v>572413</v>
       </c>
       <c r="R39" t="n">
-        <v>6635205</v>
+        <v>6635058</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112103520</v>
+        <v>112103527</v>
       </c>
       <c r="B40" t="n">
-        <v>89559</v>
+        <v>89096</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4719,21 +4719,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5442</v>
+        <v>5733</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Vent.) Schild</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>572409</v>
+        <v>572360</v>
       </c>
       <c r="R40" t="n">
-        <v>6634970</v>
+        <v>6635094</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112103512</v>
+        <v>112103545</v>
       </c>
       <c r="B41" t="n">
-        <v>89503</v>
+        <v>96735</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4817,38 +4817,43 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>572413</v>
+        <v>572405</v>
       </c>
       <c r="R41" t="n">
-        <v>6635058</v>
+        <v>6634976</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4907,10 +4912,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112103518</v>
+        <v>112103553</v>
       </c>
       <c r="B42" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4919,31 +4924,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4952,13 +4957,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>572392</v>
+        <v>572355</v>
       </c>
       <c r="R42" t="n">
-        <v>6635064</v>
+        <v>6635244</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5014,10 +5019,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112103553</v>
+        <v>112103552</v>
       </c>
       <c r="B43" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5059,10 +5064,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>572355</v>
+        <v>572359</v>
       </c>
       <c r="R43" t="n">
-        <v>6635244</v>
+        <v>6635232</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5121,10 +5126,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112103539</v>
+        <v>112103537</v>
       </c>
       <c r="B44" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5166,10 +5171,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>572445</v>
+        <v>572433</v>
       </c>
       <c r="R44" t="n">
-        <v>6635165</v>
+        <v>6635237</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5228,10 +5233,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112103523</v>
+        <v>112103546</v>
       </c>
       <c r="B45" t="n">
-        <v>90812</v>
+        <v>96735</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5240,38 +5245,43 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>572413</v>
+        <v>572416</v>
       </c>
       <c r="R45" t="n">
-        <v>6635058</v>
+        <v>6634981</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5330,10 +5340,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112103561</v>
+        <v>112103536</v>
       </c>
       <c r="B46" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5342,31 +5352,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5375,10 +5385,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>572285</v>
+        <v>572392</v>
       </c>
       <c r="R46" t="n">
-        <v>6634909</v>
+        <v>6635234</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5437,10 +5447,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112103540</v>
+        <v>112103517</v>
       </c>
       <c r="B47" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5449,43 +5459,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>572423</v>
+        <v>572368</v>
       </c>
       <c r="R47" t="n">
-        <v>6635081</v>
+        <v>6634935</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5544,10 +5549,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112103529</v>
+        <v>112103513</v>
       </c>
       <c r="B48" t="n">
-        <v>8377</v>
+        <v>89517</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5560,39 +5565,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>106545</v>
+        <v>5447</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>572286</v>
+        <v>572342</v>
       </c>
       <c r="R48" t="n">
-        <v>6634929</v>
+        <v>6635079</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5651,10 +5651,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112103524</v>
+        <v>112103542</v>
       </c>
       <c r="B49" t="n">
-        <v>90812</v>
+        <v>96735</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5663,38 +5663,43 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>572331</v>
+        <v>572414</v>
       </c>
       <c r="R49" t="n">
-        <v>6635017</v>
+        <v>6635063</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5753,10 +5758,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112103538</v>
+        <v>112103529</v>
       </c>
       <c r="B50" t="n">
-        <v>96720</v>
+        <v>8377</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5765,31 +5770,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5798,10 +5803,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>572446</v>
+        <v>572286</v>
       </c>
       <c r="R50" t="n">
-        <v>6635223</v>
+        <v>6634929</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5860,10 +5865,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112103543</v>
+        <v>112103514</v>
       </c>
       <c r="B51" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5872,43 +5877,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>572413</v>
+        <v>572347</v>
       </c>
       <c r="R51" t="n">
-        <v>6635058</v>
+        <v>6635096</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112103541</v>
+        <v>112103512</v>
       </c>
       <c r="B52" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5979,43 +5979,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>572421</v>
+        <v>572413</v>
       </c>
       <c r="R52" t="n">
-        <v>6635075</v>
+        <v>6635058</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6074,10 +6069,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112103559</v>
+        <v>112103521</v>
       </c>
       <c r="B53" t="n">
-        <v>12585</v>
+        <v>56446</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6086,58 +6081,46 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>102217</v>
+        <v>100049</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tallbarksvartbagge</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Corticeus fraxini</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Kugelann, 1794)</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>572408</v>
+        <v>572349</v>
       </c>
       <c r="R53" t="n">
-        <v>6634965</v>
+        <v>6634966</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6175,14 +6158,8 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ53" t="inlineStr">
-        <is>
-          <t>Erik Berg</t>
-        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6199,10 +6176,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112103550</v>
+        <v>112103551</v>
       </c>
       <c r="B54" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6244,10 +6221,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>572367</v>
+        <v>572349</v>
       </c>
       <c r="R54" t="n">
-        <v>6635195</v>
+        <v>6635205</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6306,10 +6283,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112103515</v>
+        <v>112103520</v>
       </c>
       <c r="B55" t="n">
-        <v>89503</v>
+        <v>89573</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6318,25 +6295,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5447</v>
+        <v>5442</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6346,10 +6323,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>572377</v>
+        <v>572409</v>
       </c>
       <c r="R55" t="n">
-        <v>6635189</v>
+        <v>6634970</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6408,10 +6385,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112103533</v>
+        <v>112103550</v>
       </c>
       <c r="B56" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6453,10 +6430,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>572387</v>
+        <v>572367</v>
       </c>
       <c r="R56" t="n">
-        <v>6635305</v>
+        <v>6635195</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6515,10 +6492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112103516</v>
+        <v>112103523</v>
       </c>
       <c r="B57" t="n">
-        <v>6202</v>
+        <v>90826</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6531,51 +6508,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>105336</v>
+        <v>4366</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>572357</v>
+        <v>572413</v>
       </c>
       <c r="R57" t="n">
-        <v>6635185</v>
+        <v>6635058</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6616,7 +6576,6 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6635,10 +6594,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112103537</v>
+        <v>112103539</v>
       </c>
       <c r="B58" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6680,10 +6639,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>572433</v>
+        <v>572445</v>
       </c>
       <c r="R58" t="n">
-        <v>6635237</v>
+        <v>6635165</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6742,10 +6701,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112103549</v>
+        <v>112103547</v>
       </c>
       <c r="B59" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6787,10 +6746,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>572373</v>
+        <v>572369</v>
       </c>
       <c r="R59" t="n">
-        <v>6635184</v>
+        <v>6635135</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6849,10 +6808,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112103534</v>
+        <v>111964085</v>
       </c>
       <c r="B60" t="n">
-        <v>96720</v>
+        <v>89993</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6865,39 +6824,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>572399</v>
+        <v>572348</v>
       </c>
       <c r="R60" t="n">
-        <v>6635261</v>
+        <v>6635252</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6924,12 +6881,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6938,6 +6895,7 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -6956,10 +6914,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112103555</v>
+        <v>112103516</v>
       </c>
       <c r="B61" t="n">
-        <v>96720</v>
+        <v>6203</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6968,43 +6926,55 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>105336</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>572367</v>
+        <v>572357</v>
       </c>
       <c r="R61" t="n">
-        <v>6635283</v>
+        <v>6635185</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7045,6 +7015,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7063,10 +7034,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111964084</v>
+        <v>112103561</v>
       </c>
       <c r="B62" t="n">
-        <v>89979</v>
+        <v>5113</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7075,41 +7046,43 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1209</v>
+        <v>100526</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>572617</v>
+        <v>572285</v>
       </c>
       <c r="R62" t="n">
-        <v>6635227</v>
+        <v>6634909</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7136,12 +7109,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7150,7 +7123,6 @@
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7169,10 +7141,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112103526</v>
+        <v>112103541</v>
       </c>
       <c r="B63" t="n">
-        <v>90812</v>
+        <v>96735</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7181,38 +7153,43 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>572344</v>
+        <v>572421</v>
       </c>
       <c r="R63" t="n">
-        <v>6635080</v>
+        <v>6635075</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7274,7 +7251,7 @@
         <v>112103563</v>
       </c>
       <c r="B64" t="n">
-        <v>90152</v>
+        <v>90166</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7373,10 +7350,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112103546</v>
+        <v>112103525</v>
       </c>
       <c r="B65" t="n">
-        <v>96720</v>
+        <v>90826</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7385,43 +7362,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>572416</v>
+        <v>572321</v>
       </c>
       <c r="R65" t="n">
-        <v>6634981</v>
+        <v>6635051</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7480,10 +7452,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112103547</v>
+        <v>112103544</v>
       </c>
       <c r="B66" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7525,10 +7497,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>572369</v>
+        <v>572423</v>
       </c>
       <c r="R66" t="n">
-        <v>6635135</v>
+        <v>6635035</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7587,10 +7559,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112103532</v>
+        <v>111964084</v>
       </c>
       <c r="B67" t="n">
-        <v>96720</v>
+        <v>89993</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7603,39 +7575,37 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>572382</v>
+        <v>572617</v>
       </c>
       <c r="R67" t="n">
-        <v>6635330</v>
+        <v>6635227</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7662,12 +7632,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7676,6 +7646,7 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -7694,10 +7665,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112103536</v>
+        <v>112103532</v>
       </c>
       <c r="B68" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7739,10 +7710,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>572392</v>
+        <v>572382</v>
       </c>
       <c r="R68" t="n">
-        <v>6635234</v>
+        <v>6635330</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7801,10 +7772,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111964085</v>
+        <v>112103548</v>
       </c>
       <c r="B69" t="n">
-        <v>89979</v>
+        <v>96735</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7817,37 +7788,39 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>572348</v>
+        <v>572361</v>
       </c>
       <c r="R69" t="n">
-        <v>6635252</v>
+        <v>6635164</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7874,12 +7847,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7888,7 +7861,6 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -7907,10 +7879,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112103554</v>
+        <v>112103519</v>
       </c>
       <c r="B70" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7919,31 +7891,31 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7952,13 +7924,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>572357</v>
+        <v>572346</v>
       </c>
       <c r="R70" t="n">
-        <v>6635244</v>
+        <v>6634962</v>
       </c>
       <c r="S70" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8014,10 +7986,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112103527</v>
+        <v>112103515</v>
       </c>
       <c r="B71" t="n">
-        <v>89082</v>
+        <v>89517</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8026,25 +7998,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5733</v>
+        <v>5447</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8054,10 +8026,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>572360</v>
+        <v>572377</v>
       </c>
       <c r="R71" t="n">
-        <v>6635094</v>
+        <v>6635189</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8116,10 +8088,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112103544</v>
+        <v>112103540</v>
       </c>
       <c r="B72" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8164,7 +8136,7 @@
         <v>572423</v>
       </c>
       <c r="R72" t="n">
-        <v>6635035</v>
+        <v>6635081</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8223,10 +8195,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112103552</v>
+        <v>112103528</v>
       </c>
       <c r="B73" t="n">
-        <v>96720</v>
+        <v>8377</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8235,31 +8207,31 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -8268,10 +8240,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>572359</v>
+        <v>572399</v>
       </c>
       <c r="R73" t="n">
-        <v>6635232</v>
+        <v>6634972</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8330,10 +8302,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112103562</v>
+        <v>112103554</v>
       </c>
       <c r="B74" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8342,31 +8314,31 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -8375,10 +8347,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>572377</v>
+        <v>572357</v>
       </c>
       <c r="R74" t="n">
-        <v>6635188</v>
+        <v>6635244</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8437,10 +8409,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112103521</v>
+        <v>112103518</v>
       </c>
       <c r="B75" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8453,27 +8425,27 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -8482,10 +8454,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>572349</v>
+        <v>572392</v>
       </c>
       <c r="R75" t="n">
-        <v>6634966</v>
+        <v>6635064</v>
       </c>
       <c r="S75" t="n">
         <v>50</v>
@@ -8544,10 +8516,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112103542</v>
+        <v>112103549</v>
       </c>
       <c r="B76" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8589,10 +8561,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>572414</v>
+        <v>572373</v>
       </c>
       <c r="R76" t="n">
-        <v>6635063</v>
+        <v>6635184</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8651,10 +8623,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112103514</v>
+        <v>112103511</v>
       </c>
       <c r="B77" t="n">
-        <v>89503</v>
+        <v>94301</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8663,25 +8635,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8691,10 +8663,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>572347</v>
+        <v>572313</v>
       </c>
       <c r="R77" t="n">
-        <v>6635096</v>
+        <v>6634840</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8753,10 +8725,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112103525</v>
+        <v>112103555</v>
       </c>
       <c r="B78" t="n">
-        <v>90812</v>
+        <v>96735</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8765,38 +8737,43 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4366</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>572321</v>
+        <v>572367</v>
       </c>
       <c r="R78" t="n">
-        <v>6635051</v>
+        <v>6635283</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8855,10 +8832,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112103511</v>
+        <v>112103534</v>
       </c>
       <c r="B79" t="n">
-        <v>94287</v>
+        <v>96735</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8867,38 +8844,43 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>572313</v>
+        <v>572399</v>
       </c>
       <c r="R79" t="n">
-        <v>6634840</v>
+        <v>6635261</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8957,10 +8939,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112103517</v>
+        <v>112103538</v>
       </c>
       <c r="B80" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8969,38 +8951,43 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>572368</v>
+        <v>572446</v>
       </c>
       <c r="R80" t="n">
-        <v>6634935</v>
+        <v>6635223</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9059,10 +9046,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112103545</v>
+        <v>112103562</v>
       </c>
       <c r="B81" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9071,31 +9058,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -9104,10 +9091,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>572405</v>
+        <v>572377</v>
       </c>
       <c r="R81" t="n">
-        <v>6634976</v>
+        <v>6635188</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9166,10 +9153,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112103535</v>
+        <v>112103526</v>
       </c>
       <c r="B82" t="n">
-        <v>96720</v>
+        <v>90826</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9178,43 +9165,38 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>572400</v>
+        <v>572344</v>
       </c>
       <c r="R82" t="n">
-        <v>6635245</v>
+        <v>6635080</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9273,10 +9255,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112103528</v>
+        <v>112103559</v>
       </c>
       <c r="B83" t="n">
-        <v>8377</v>
+        <v>12585</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9285,43 +9267,55 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>106545</v>
+        <v>102217</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallbarksvartbagge</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Corticeus fraxini</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
+          <t>(Kugelann, 1794)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>572399</v>
+        <v>572408</v>
       </c>
       <c r="R83" t="n">
-        <v>6634972</v>
+        <v>6634965</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9362,8 +9356,14 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
@@ -9380,10 +9380,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112103513</v>
+        <v>112103524</v>
       </c>
       <c r="B84" t="n">
-        <v>89503</v>
+        <v>90826</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9396,21 +9396,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5447</v>
+        <v>4366</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9420,10 +9420,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>572342</v>
+        <v>572331</v>
       </c>
       <c r="R84" t="n">
-        <v>6635079</v>
+        <v>6635017</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9482,10 +9482,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112276694</v>
+        <v>112276704</v>
       </c>
       <c r="B85" t="n">
-        <v>89503</v>
+        <v>89553</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9494,25 +9494,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9522,10 +9522,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>572630</v>
+        <v>572516</v>
       </c>
       <c r="R85" t="n">
-        <v>6635265</v>
+        <v>6635002</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112276701</v>
+        <v>112276724</v>
       </c>
       <c r="B86" t="n">
-        <v>5135</v>
+        <v>96735</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9596,31 +9596,31 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -9629,10 +9629,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>572503</v>
+        <v>572552</v>
       </c>
       <c r="R86" t="n">
-        <v>6635041</v>
+        <v>6635038</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9694,7 +9694,7 @@
         <v>112276700</v>
       </c>
       <c r="B87" t="n">
-        <v>89503</v>
+        <v>89517</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9793,10 +9793,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112276709</v>
+        <v>112276717</v>
       </c>
       <c r="B88" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9805,35 +9805,31 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -9842,13 +9838,13 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>572050</v>
+        <v>572478</v>
       </c>
       <c r="R88" t="n">
-        <v>6635004</v>
+        <v>6635227</v>
       </c>
       <c r="S88" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -9904,10 +9900,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112276733</v>
+        <v>112276732</v>
       </c>
       <c r="B89" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9949,10 +9945,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>572074</v>
+        <v>572059</v>
       </c>
       <c r="R89" t="n">
-        <v>6634976</v>
+        <v>6634995</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10011,10 +10007,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112276696</v>
+        <v>112276716</v>
       </c>
       <c r="B90" t="n">
-        <v>89503</v>
+        <v>96735</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10023,38 +10019,43 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>572518</v>
+        <v>572567</v>
       </c>
       <c r="R90" t="n">
-        <v>6635164</v>
+        <v>6635215</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10113,10 +10114,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112276697</v>
+        <v>112276739</v>
       </c>
       <c r="B91" t="n">
-        <v>89503</v>
+        <v>83506</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10125,25 +10126,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5447</v>
+        <v>241</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10153,10 +10154,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>572498</v>
+        <v>572573</v>
       </c>
       <c r="R91" t="n">
-        <v>6635101</v>
+        <v>6635037</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10215,10 +10216,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112276716</v>
+        <v>112276735</v>
       </c>
       <c r="B92" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10260,10 +10261,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>572567</v>
+        <v>572075</v>
       </c>
       <c r="R92" t="n">
-        <v>6635215</v>
+        <v>6634976</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10325,7 +10326,7 @@
         <v>112276718</v>
       </c>
       <c r="B93" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10429,10 +10430,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112276730</v>
+        <v>112276740</v>
       </c>
       <c r="B94" t="n">
-        <v>96720</v>
+        <v>89567</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10441,43 +10442,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>1204</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P94" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>572283</v>
+        <v>572638</v>
       </c>
       <c r="R94" t="n">
-        <v>6634886</v>
+        <v>6635268</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10536,10 +10532,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112276721</v>
+        <v>112276692</v>
       </c>
       <c r="B95" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10548,43 +10544,38 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>572542</v>
+        <v>572569</v>
       </c>
       <c r="R95" t="n">
-        <v>6635025</v>
+        <v>6635238</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10643,10 +10634,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112276742</v>
+        <v>112276743</v>
       </c>
       <c r="B96" t="n">
-        <v>5113</v>
+        <v>90166</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10659,39 +10650,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100526</v>
+        <v>1339</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>572548</v>
+        <v>572657</v>
       </c>
       <c r="R96" t="n">
-        <v>6635043</v>
+        <v>6635285</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10750,10 +10736,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>112276744</v>
+        <v>112276729</v>
       </c>
       <c r="B97" t="n">
-        <v>8367</v>
+        <v>96735</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -10762,31 +10748,31 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
@@ -10795,10 +10781,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>572566</v>
+        <v>572454</v>
       </c>
       <c r="R97" t="n">
-        <v>6635044</v>
+        <v>6634984</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10857,10 +10843,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>112276693</v>
+        <v>112276698</v>
       </c>
       <c r="B98" t="n">
-        <v>94287</v>
+        <v>89517</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -10869,25 +10855,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10897,10 +10883,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>572486</v>
+        <v>572488</v>
       </c>
       <c r="R98" t="n">
-        <v>6635116</v>
+        <v>6635118</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -10959,10 +10945,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>112276740</v>
+        <v>112276697</v>
       </c>
       <c r="B99" t="n">
-        <v>89553</v>
+        <v>89517</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -10971,25 +10957,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -10999,10 +10985,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>572638</v>
+        <v>572498</v>
       </c>
       <c r="R99" t="n">
-        <v>6635268</v>
+        <v>6635101</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11061,10 +11047,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112276736</v>
+        <v>112276715</v>
       </c>
       <c r="B100" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11106,10 +11092,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>572160</v>
+        <v>572622</v>
       </c>
       <c r="R100" t="n">
-        <v>6634905</v>
+        <v>6635271</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11168,10 +11154,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112276692</v>
+        <v>112276731</v>
       </c>
       <c r="B101" t="n">
-        <v>94287</v>
+        <v>96735</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11180,38 +11166,43 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P101" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>572569</v>
+        <v>572050</v>
       </c>
       <c r="R101" t="n">
-        <v>6635238</v>
+        <v>6635004</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11270,10 +11261,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>112276724</v>
+        <v>112276742</v>
       </c>
       <c r="B102" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11282,31 +11273,31 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -11315,10 +11306,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>572552</v>
+        <v>572548</v>
       </c>
       <c r="R102" t="n">
-        <v>6635038</v>
+        <v>6635043</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11377,10 +11368,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>112276699</v>
+        <v>112276705</v>
       </c>
       <c r="B103" t="n">
-        <v>89503</v>
+        <v>56575</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11389,25 +11380,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -11417,10 +11408,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>572504</v>
+        <v>572488</v>
       </c>
       <c r="R103" t="n">
-        <v>6635071</v>
+        <v>6634985</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11479,10 +11470,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>112276726</v>
+        <v>112276719</v>
       </c>
       <c r="B104" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11524,10 +11515,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>572547</v>
+        <v>572544</v>
       </c>
       <c r="R104" t="n">
-        <v>6635027</v>
+        <v>6635010</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11589,7 +11580,7 @@
         <v>112276695</v>
       </c>
       <c r="B105" t="n">
-        <v>89503</v>
+        <v>89517</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11688,10 +11679,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>112276735</v>
+        <v>112276694</v>
       </c>
       <c r="B106" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -11700,43 +11691,38 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>572075</v>
+        <v>572630</v>
       </c>
       <c r="R106" t="n">
-        <v>6634976</v>
+        <v>6635265</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -11795,10 +11781,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112276719</v>
+        <v>112276701</v>
       </c>
       <c r="B107" t="n">
-        <v>96720</v>
+        <v>5135</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11807,31 +11793,31 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -11840,10 +11826,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>572544</v>
+        <v>572503</v>
       </c>
       <c r="R107" t="n">
-        <v>6635010</v>
+        <v>6635041</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -11902,10 +11888,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112276729</v>
+        <v>112276725</v>
       </c>
       <c r="B108" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -11947,10 +11933,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>572454</v>
+        <v>572557</v>
       </c>
       <c r="R108" t="n">
-        <v>6634984</v>
+        <v>6635036</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -12009,10 +11995,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>112276703</v>
+        <v>112276714</v>
       </c>
       <c r="B109" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12021,38 +12007,43 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P109" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>572632</v>
+        <v>572638</v>
       </c>
       <c r="R109" t="n">
-        <v>6635283</v>
+        <v>6635268</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12111,10 +12102,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>112276715</v>
+        <v>112276728</v>
       </c>
       <c r="B110" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12156,10 +12147,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>572622</v>
+        <v>572463</v>
       </c>
       <c r="R110" t="n">
-        <v>6635271</v>
+        <v>6635001</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12218,10 +12209,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>112276723</v>
+        <v>112276726</v>
       </c>
       <c r="B111" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12266,7 +12257,7 @@
         <v>572547</v>
       </c>
       <c r="R111" t="n">
-        <v>6635060</v>
+        <v>6635027</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12325,10 +12316,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>112276743</v>
+        <v>112276733</v>
       </c>
       <c r="B112" t="n">
-        <v>90152</v>
+        <v>96735</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12337,38 +12328,43 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1339</v>
+        <v>220787</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P112" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>572657</v>
+        <v>572074</v>
       </c>
       <c r="R112" t="n">
-        <v>6635285</v>
+        <v>6634976</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -12427,10 +12423,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112276739</v>
+        <v>112276696</v>
       </c>
       <c r="B113" t="n">
-        <v>83492</v>
+        <v>89517</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12439,25 +12435,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>241</v>
+        <v>5447</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -12467,10 +12463,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>572573</v>
+        <v>572518</v>
       </c>
       <c r="R113" t="n">
-        <v>6635037</v>
+        <v>6635164</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -12529,10 +12525,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>112276713</v>
+        <v>112276721</v>
       </c>
       <c r="B114" t="n">
-        <v>8377</v>
+        <v>96735</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -12541,38 +12537,43 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>106545</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>572390</v>
+        <v>572542</v>
       </c>
       <c r="R114" t="n">
-        <v>6635003</v>
+        <v>6635025</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -12634,7 +12635,7 @@
         <v>112276727</v>
       </c>
       <c r="B115" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -12738,10 +12739,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>112276725</v>
+        <v>112276730</v>
       </c>
       <c r="B116" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -12783,10 +12784,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>572557</v>
+        <v>572283</v>
       </c>
       <c r="R116" t="n">
-        <v>6635036</v>
+        <v>6634886</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -12845,10 +12846,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112276704</v>
+        <v>112276713</v>
       </c>
       <c r="B117" t="n">
-        <v>89539</v>
+        <v>8377</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -12857,25 +12858,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -12885,10 +12886,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>572516</v>
+        <v>572390</v>
       </c>
       <c r="R117" t="n">
-        <v>6635002</v>
+        <v>6635003</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -12947,10 +12948,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>112276705</v>
+        <v>112276744</v>
       </c>
       <c r="B118" t="n">
-        <v>56575</v>
+        <v>8367</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -12959,38 +12960,43 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>103021</v>
+        <v>106554</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>572488</v>
+        <v>572566</v>
       </c>
       <c r="R118" t="n">
-        <v>6634985</v>
+        <v>6635044</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -13049,10 +13055,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>112276717</v>
+        <v>112276722</v>
       </c>
       <c r="B119" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13094,10 +13100,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>572478</v>
+        <v>572533</v>
       </c>
       <c r="R119" t="n">
-        <v>6635227</v>
+        <v>6635048</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -13156,10 +13162,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>112276722</v>
+        <v>112276699</v>
       </c>
       <c r="B120" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13168,43 +13174,38 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P120" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>572533</v>
+        <v>572504</v>
       </c>
       <c r="R120" t="n">
-        <v>6635048</v>
+        <v>6635071</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -13263,10 +13264,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>112276728</v>
+        <v>112276703</v>
       </c>
       <c r="B121" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -13275,43 +13276,38 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P121" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>572463</v>
+        <v>572632</v>
       </c>
       <c r="R121" t="n">
-        <v>6635001</v>
+        <v>6635283</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -13370,10 +13366,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>112276731</v>
+        <v>112276709</v>
       </c>
       <c r="B122" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -13382,31 +13378,35 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -13421,7 +13421,7 @@
         <v>6635004</v>
       </c>
       <c r="S122" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
@@ -13477,10 +13477,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>112276714</v>
+        <v>112276693</v>
       </c>
       <c r="B123" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -13489,43 +13489,38 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P123" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>572638</v>
+        <v>572486</v>
       </c>
       <c r="R123" t="n">
-        <v>6635268</v>
+        <v>6635116</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -13584,10 +13579,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>112276698</v>
+        <v>112276723</v>
       </c>
       <c r="B124" t="n">
-        <v>89503</v>
+        <v>96735</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -13596,38 +13591,43 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>572488</v>
+        <v>572547</v>
       </c>
       <c r="R124" t="n">
-        <v>6635118</v>
+        <v>6635060</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -13686,10 +13686,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>112276732</v>
+        <v>112276736</v>
       </c>
       <c r="B125" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -13731,10 +13731,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>572059</v>
+        <v>572160</v>
       </c>
       <c r="R125" t="n">
-        <v>6634995</v>
+        <v>6634905</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -13793,10 +13793,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>112276702</v>
+        <v>112276737</v>
       </c>
       <c r="B126" t="n">
-        <v>89879</v>
+        <v>6206</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -13805,30 +13805,35 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2062</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Ulltickeporing</t>
-        </is>
+        <v>102351</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Thymalus limbatus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr"/>
+          <t>(Fabricius, 1787)</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
@@ -13836,10 +13841,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>572516</v>
+        <v>572494</v>
       </c>
       <c r="R126" t="n">
-        <v>6635001</v>
+        <v>6635209</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -13883,6 +13888,11 @@
       <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ126" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
       </c>
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
@@ -13899,10 +13909,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>112276737</v>
+        <v>112276702</v>
       </c>
       <c r="B127" t="n">
-        <v>6206</v>
+        <v>89893</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -13911,35 +13921,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>102351</v>
+        <v>2062</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Thymalus limbatus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fabricius, 1787)</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
@@ -13947,10 +13952,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>572494</v>
+        <v>572516</v>
       </c>
       <c r="R127" t="n">
-        <v>6635209</v>
+        <v>6635001</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -13994,11 +13999,6 @@
       <c r="AF127" t="inlineStr"/>
       <c r="AG127" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ127" t="inlineStr">
-        <is>
-          <t>Erik Berg</t>
-        </is>
       </c>
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
@@ -14015,10 +14015,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>112276712</v>
+        <v>112276707</v>
       </c>
       <c r="B128" t="n">
-        <v>57620</v>
+        <v>90857</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14027,52 +14027,35 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>208242</v>
+        <v>5448</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>på övervintringsplats</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>572510</v>
+        <v>572508</v>
       </c>
       <c r="R128" t="n">
         <v>6634978</v>
@@ -14116,7 +14099,6 @@
       <c r="AE128" t="b">
         <v>0</v>
       </c>
-      <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="b">
         <v>0</v>
       </c>
@@ -14135,10 +14117,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>112276707</v>
+        <v>112276712</v>
       </c>
       <c r="B129" t="n">
-        <v>90843</v>
+        <v>57620</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -14147,35 +14129,52 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5448</v>
+        <v>208242</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>på övervintringsplats</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>572508</v>
+        <v>572510</v>
       </c>
       <c r="R129" t="n">
         <v>6634978</v>
@@ -14219,6 +14218,7 @@
       <c r="AE129" t="b">
         <v>0</v>
       </c>
+      <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 12276-2023.xlsx
+++ b/artfynd/A 12276-2023.xlsx
@@ -2584,7 +2584,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111964103</v>
+        <v>111964095</v>
       </c>
       <c r="B20" t="n">
         <v>96735</v>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>572486</v>
+        <v>572522</v>
       </c>
       <c r="R20" t="n">
-        <v>6635047</v>
+        <v>6635185</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111964095</v>
+        <v>111964105</v>
       </c>
       <c r="B21" t="n">
         <v>96735</v>
@@ -2736,10 +2736,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>572522</v>
+        <v>572626</v>
       </c>
       <c r="R21" t="n">
-        <v>6635185</v>
+        <v>6635265</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111964105</v>
+        <v>111964103</v>
       </c>
       <c r="B22" t="n">
         <v>96735</v>
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>572626</v>
+        <v>572486</v>
       </c>
       <c r="R22" t="n">
-        <v>6635265</v>
+        <v>6635047</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112103535</v>
+        <v>112103533</v>
       </c>
       <c r="B37" t="n">
         <v>96735</v>
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>572400</v>
+        <v>572387</v>
       </c>
       <c r="R37" t="n">
-        <v>6635245</v>
+        <v>6635305</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112103533</v>
+        <v>112103543</v>
       </c>
       <c r="B38" t="n">
         <v>96735</v>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>572387</v>
+        <v>572413</v>
       </c>
       <c r="R38" t="n">
-        <v>6635305</v>
+        <v>6635058</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4596,10 +4596,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112103543</v>
+        <v>112103527</v>
       </c>
       <c r="B39" t="n">
-        <v>96735</v>
+        <v>89096</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4608,43 +4608,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>5733</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Såpfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria lutea</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Vent.) Schild</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>572413</v>
+        <v>572360</v>
       </c>
       <c r="R39" t="n">
-        <v>6635058</v>
+        <v>6635094</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4703,10 +4698,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112103527</v>
+        <v>112103535</v>
       </c>
       <c r="B40" t="n">
-        <v>89096</v>
+        <v>96735</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4715,38 +4710,43 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5733</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Såpfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria lutea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Vent.) Schild</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>572360</v>
+        <v>572400</v>
       </c>
       <c r="R40" t="n">
-        <v>6635094</v>
+        <v>6635245</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112103523</v>
+        <v>111964085</v>
       </c>
       <c r="B57" t="n">
-        <v>90826</v>
+        <v>89993</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6504,38 +6504,41 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4366</v>
+        <v>1209</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Sala Norrby 1:3, Vstm</t>
+          <t>Rörbo, Sala-Norrby, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>572413</v>
+        <v>572348</v>
       </c>
       <c r="R57" t="n">
-        <v>6635058</v>
+        <v>6635252</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6562,12 +6565,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6576,6 +6579,7 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -6594,10 +6598,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112103539</v>
+        <v>112103523</v>
       </c>
       <c r="B58" t="n">
-        <v>96735</v>
+        <v>90826</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6606,43 +6610,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>4366</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>572445</v>
+        <v>572413</v>
       </c>
       <c r="R58" t="n">
-        <v>6635165</v>
+        <v>6635058</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6701,7 +6700,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112103547</v>
+        <v>112103539</v>
       </c>
       <c r="B59" t="n">
         <v>96735</v>
@@ -6746,10 +6745,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>572369</v>
+        <v>572445</v>
       </c>
       <c r="R59" t="n">
-        <v>6635135</v>
+        <v>6635165</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6808,10 +6807,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111964085</v>
+        <v>112103547</v>
       </c>
       <c r="B60" t="n">
-        <v>89993</v>
+        <v>96735</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6824,37 +6823,39 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Rörbo, Sala-Norrby, Vstm</t>
+          <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>572348</v>
+        <v>572369</v>
       </c>
       <c r="R60" t="n">
-        <v>6635252</v>
+        <v>6635135</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6881,12 +6882,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6895,7 +6896,6 @@
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -10007,10 +10007,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>112276716</v>
+        <v>112276739</v>
       </c>
       <c r="B90" t="n">
-        <v>96735</v>
+        <v>83506</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10019,43 +10019,38 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220787</v>
+        <v>241</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gransotdyna</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Camarops tubulina</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>572567</v>
+        <v>572573</v>
       </c>
       <c r="R90" t="n">
-        <v>6635215</v>
+        <v>6635037</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10114,10 +10109,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112276739</v>
+        <v>112276735</v>
       </c>
       <c r="B91" t="n">
-        <v>83506</v>
+        <v>96735</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10126,38 +10121,43 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>241</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Gransotdyna</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Camarops tubulina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) Shear</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
           <t>Sala Norrby 1:3, Vstm</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>572573</v>
+        <v>572075</v>
       </c>
       <c r="R91" t="n">
-        <v>6635037</v>
+        <v>6634976</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10216,7 +10216,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>112276735</v>
+        <v>112276718</v>
       </c>
       <c r="B92" t="n">
         <v>96735</v>
@@ -10261,10 +10261,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>572075</v>
+        <v>572500</v>
       </c>
       <c r="R92" t="n">
-        <v>6634976</v>
+        <v>6635075</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10323,7 +10323,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112276718</v>
+        <v>112276716</v>
       </c>
       <c r="B93" t="n">
         <v>96735</v>
@@ -10368,10 +10368,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>572500</v>
+        <v>572567</v>
       </c>
       <c r="R93" t="n">
-        <v>6635075</v>
+        <v>6635215</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10532,10 +10532,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>112276692</v>
+        <v>112276743</v>
       </c>
       <c r="B95" t="n">
-        <v>94301</v>
+        <v>90166</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10544,25 +10544,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>53</v>
+        <v>1339</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10572,10 +10572,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>572569</v>
+        <v>572657</v>
       </c>
       <c r="R95" t="n">
-        <v>6635238</v>
+        <v>6635285</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10634,10 +10634,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>112276743</v>
+        <v>112276692</v>
       </c>
       <c r="B96" t="n">
-        <v>90166</v>
+        <v>94301</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10646,25 +10646,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1339</v>
+        <v>53</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10674,10 +10674,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>572657</v>
+        <v>572569</v>
       </c>
       <c r="R96" t="n">
-        <v>6635285</v>
+        <v>6635238</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
